--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="561">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1987,14 +1987,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
         <v>12</v>
@@ -2006,14 +2008,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
         <v>12</v>

--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="561">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,14 +2029,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
         <v>12</v>
@@ -2048,14 +2050,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="4" t="s">
         <v>12</v>
@@ -2086,14 +2090,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="4" t="s">
         <v>12</v>

--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="561">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2111,14 +2111,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
         <v>12</v>

--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="562">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2209,14 +2209,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
         <v>13</v>

--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="563">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mortal Fibonacci Rabbits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">GRPH</t>
@@ -1864,7 +1867,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2085,14 +2088,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
         <v>13</v>
@@ -2106,10 +2111,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -2127,10 +2132,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -2148,10 +2153,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
@@ -2167,14 +2172,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
@@ -2190,10 +2197,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>6</v>
@@ -2211,10 +2218,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
@@ -2230,14 +2237,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
@@ -2249,14 +2258,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="5" t="s">
         <v>13</v>
@@ -2268,14 +2279,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="5" t="s">
         <v>13</v>
@@ -2287,14 +2300,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="5" t="s">
         <v>13</v>
@@ -2308,10 +2323,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -2327,10 +2342,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -2346,10 +2361,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -2365,10 +2380,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -2384,10 +2399,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -2403,10 +2418,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -2422,10 +2437,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -2441,10 +2456,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -2460,10 +2475,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -2479,10 +2494,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -2498,10 +2513,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -2517,10 +2532,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
@@ -2536,10 +2551,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
@@ -2555,10 +2570,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
@@ -2574,10 +2589,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -2593,10 +2608,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
@@ -2612,10 +2627,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -2631,10 +2646,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
@@ -2650,10 +2665,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
@@ -2669,10 +2684,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
@@ -2688,10 +2703,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -2707,10 +2722,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
@@ -2726,10 +2741,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -2745,10 +2760,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -2764,10 +2779,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
@@ -2783,10 +2798,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
@@ -2802,10 +2817,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
@@ -2821,10 +2836,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
@@ -2840,10 +2855,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
@@ -2859,10 +2874,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
@@ -2878,10 +2893,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
@@ -2897,10 +2912,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
@@ -2916,10 +2931,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -2935,10 +2950,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -2954,10 +2969,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -2973,10 +2988,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -2992,10 +3007,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3011,10 +3026,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -3030,10 +3045,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -3049,10 +3064,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -3068,10 +3083,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -3087,10 +3102,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -3106,10 +3121,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -3125,10 +3140,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -3144,10 +3159,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -3163,10 +3178,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -3182,10 +3197,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
@@ -3201,10 +3216,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
@@ -3220,10 +3235,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -3239,10 +3254,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -3258,10 +3273,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -3277,10 +3292,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -3296,10 +3311,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -3315,10 +3330,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
@@ -3334,10 +3349,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -3353,10 +3368,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
@@ -3372,10 +3387,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
@@ -3391,10 +3406,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
@@ -3410,10 +3425,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -3429,10 +3444,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -3448,10 +3463,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -3467,10 +3482,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -3486,10 +3501,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -3505,10 +3520,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -3524,10 +3539,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -3543,10 +3558,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -3562,10 +3577,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -3581,10 +3596,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -3600,10 +3615,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -3619,10 +3634,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -3638,10 +3653,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -3657,10 +3672,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -3676,10 +3691,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -3695,10 +3710,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -3714,10 +3729,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -3733,10 +3748,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -3752,10 +3767,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -3771,10 +3786,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
@@ -3790,10 +3805,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
@@ -3809,10 +3824,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="8"/>
@@ -3828,10 +3843,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
@@ -3847,10 +3862,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
@@ -3866,10 +3881,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="8"/>
@@ -3885,10 +3900,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -4046,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4055,10 +4070,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
@@ -4068,10 +4083,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
@@ -4081,10 +4096,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9"/>
@@ -4094,10 +4109,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
@@ -4107,10 +4122,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -4120,10 +4135,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
@@ -4133,10 +4148,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -4146,10 +4161,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -4159,10 +4174,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -4172,10 +4187,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -4185,10 +4200,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
@@ -4198,10 +4213,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
@@ -4211,10 +4226,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -4224,10 +4239,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -4237,10 +4252,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
@@ -4250,10 +4265,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
@@ -4263,10 +4278,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
@@ -4276,10 +4291,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -4289,10 +4304,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -4302,10 +4317,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -4315,10 +4330,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -4328,10 +4343,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -4341,10 +4356,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -4354,10 +4369,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
@@ -4367,10 +4382,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
@@ -4380,10 +4395,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
@@ -4393,10 +4408,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
@@ -4406,10 +4421,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
@@ -4419,10 +4434,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
@@ -4432,10 +4447,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
@@ -4445,10 +4460,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
@@ -4458,10 +4473,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
@@ -4471,10 +4486,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
@@ -4484,10 +4499,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -4568,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4577,10 +4592,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
@@ -4590,10 +4605,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
@@ -4603,10 +4618,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9"/>
@@ -4616,10 +4631,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
@@ -4629,10 +4644,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -4642,10 +4657,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
@@ -4655,10 +4670,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -4668,10 +4683,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -4681,10 +4696,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -4694,10 +4709,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -4707,7 +4722,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -4720,10 +4735,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
@@ -4733,10 +4748,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -4746,10 +4761,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -4759,10 +4774,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
@@ -4772,10 +4787,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
@@ -4838,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="5"/>
@@ -4847,10 +4862,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
@@ -4866,10 +4881,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
@@ -4885,10 +4900,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9"/>
@@ -4904,10 +4919,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
@@ -4923,10 +4938,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -4942,10 +4957,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
@@ -4961,10 +4976,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -4980,10 +4995,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -4999,10 +5014,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -5018,10 +5033,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -5037,10 +5052,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
@@ -5056,10 +5071,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
@@ -5075,10 +5090,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -5094,10 +5109,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -5113,10 +5128,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
@@ -5132,10 +5147,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
@@ -5151,10 +5166,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
@@ -5170,10 +5185,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -5189,10 +5204,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -5208,10 +5223,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -5227,10 +5242,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -5246,10 +5261,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -5265,10 +5280,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -5284,10 +5299,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
@@ -5303,10 +5318,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
@@ -5322,10 +5337,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
@@ -5341,10 +5356,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
@@ -5360,10 +5375,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
@@ -5379,10 +5394,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
@@ -5398,10 +5413,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
@@ -5417,10 +5432,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
@@ -5436,10 +5451,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
@@ -5455,10 +5470,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
@@ -5474,10 +5489,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -5493,10 +5508,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
@@ -5512,10 +5527,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
@@ -5531,10 +5546,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
@@ -5550,10 +5565,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="9"/>
@@ -5569,10 +5584,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="9"/>
@@ -5588,10 +5603,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
@@ -5607,10 +5622,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9"/>
@@ -5626,10 +5641,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="9"/>
@@ -5645,10 +5660,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="9"/>
@@ -5664,10 +5679,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
@@ -5683,10 +5698,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="9"/>
@@ -5702,10 +5717,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="9"/>
@@ -5721,10 +5736,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="9"/>
@@ -5740,10 +5755,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="9"/>
@@ -5759,10 +5774,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="9"/>
@@ -5778,10 +5793,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9"/>
@@ -5797,10 +5812,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="9"/>
@@ -5816,10 +5831,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="9"/>
@@ -5835,10 +5850,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="9"/>
@@ -5854,10 +5869,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="9"/>
@@ -5873,10 +5888,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="9"/>
@@ -5892,10 +5907,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="9"/>
@@ -5911,10 +5926,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="9"/>
@@ -5930,10 +5945,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="9"/>
@@ -5949,10 +5964,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="9"/>
@@ -5968,10 +5983,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="9"/>
@@ -5987,10 +6002,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="9"/>
@@ -6006,10 +6021,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="9"/>
@@ -6025,10 +6040,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="9"/>
@@ -6044,10 +6059,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="9"/>
@@ -6063,10 +6078,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="9"/>
@@ -6082,10 +6097,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="9"/>
@@ -6101,10 +6116,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="9"/>
@@ -6120,10 +6135,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9"/>
@@ -6139,10 +6154,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
@@ -6158,10 +6173,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="9"/>
@@ -6177,10 +6192,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="9"/>
@@ -6196,10 +6211,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="9"/>
@@ -6215,10 +6230,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="9"/>
@@ -6234,10 +6249,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="9"/>
@@ -6253,10 +6268,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="9"/>
@@ -6272,10 +6287,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="9"/>
@@ -6291,10 +6306,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
@@ -6310,10 +6325,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
@@ -6329,10 +6344,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
@@ -6348,10 +6363,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="9"/>
@@ -6367,10 +6382,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="9"/>
@@ -6386,10 +6401,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
@@ -6405,10 +6420,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
@@ -6424,10 +6439,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="9"/>
@@ -6443,10 +6458,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="9"/>
@@ -6462,10 +6477,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="9"/>
@@ -6481,10 +6496,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="9"/>
@@ -6500,10 +6515,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="9"/>
@@ -6519,10 +6534,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="9"/>
@@ -6538,10 +6553,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="9"/>
@@ -6557,10 +6572,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="9"/>
@@ -6576,10 +6591,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
@@ -6595,10 +6610,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="9"/>
@@ -6614,10 +6629,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="9"/>
@@ -6633,10 +6648,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="9"/>
@@ -6652,10 +6667,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="9"/>
@@ -6671,10 +6686,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="9"/>
@@ -6690,10 +6705,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="9"/>
@@ -6709,10 +6724,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="9"/>
@@ -6728,10 +6743,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="9"/>
@@ -6747,10 +6762,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="9"/>
@@ -6766,10 +6781,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="9"/>
@@ -6785,10 +6800,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="9"/>
@@ -6804,10 +6819,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="9"/>
@@ -6823,10 +6838,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="9"/>
@@ -6842,10 +6857,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="9"/>
@@ -6861,10 +6876,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="9"/>
@@ -6880,10 +6895,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="9"/>
@@ -6899,10 +6914,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="9"/>
@@ -6918,10 +6933,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="9"/>
@@ -6937,10 +6952,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="9"/>
@@ -6956,10 +6971,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="9"/>
@@ -6975,10 +6990,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="9"/>
@@ -6994,10 +7009,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="9"/>
@@ -7013,10 +7028,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="9"/>
@@ -7032,10 +7047,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="9"/>
@@ -7051,10 +7066,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="9"/>
@@ -7070,10 +7085,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="9"/>
@@ -7089,10 +7104,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="9"/>
@@ -7108,10 +7123,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="9"/>
@@ -7127,10 +7142,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="9"/>
@@ -7146,10 +7161,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="9"/>
@@ -7165,10 +7180,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="9"/>
@@ -7184,10 +7199,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="9"/>

--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="563">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,14 +2321,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
         <v>13</v>
@@ -2340,14 +2342,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="5" t="s">
         <v>13</v>

--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="562">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mortal Fibonacci Rabbits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">GRPH</t>
@@ -1866,8 +1863,8 @@
   </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2095,9 +2092,7 @@
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
         <v>13</v>
@@ -2111,10 +2106,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -2132,10 +2127,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -2153,10 +2148,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
@@ -2174,10 +2169,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>6</v>
@@ -2197,10 +2192,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>6</v>
@@ -2218,10 +2213,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
@@ -2239,10 +2234,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>6</v>
@@ -2260,10 +2255,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>6</v>
@@ -2281,10 +2276,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>6</v>
@@ -2302,10 +2297,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
@@ -2323,10 +2318,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>6</v>
@@ -2344,10 +2339,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>6</v>
@@ -2365,10 +2360,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -2382,14 +2377,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="5" t="s">
         <v>13</v>
@@ -2401,14 +2398,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
         <v>13</v>
@@ -2420,14 +2419,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="5" t="s">
         <v>13</v>
@@ -2439,14 +2440,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="5" t="s">
         <v>13</v>
@@ -2460,10 +2463,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -2477,14 +2480,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="5" t="s">
         <v>13</v>
@@ -2498,10 +2503,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -2517,10 +2522,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
@@ -2536,10 +2541,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
@@ -2555,10 +2560,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
@@ -2574,10 +2579,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
@@ -2593,10 +2598,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
@@ -2612,10 +2617,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
@@ -2631,10 +2636,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -2650,10 +2655,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
@@ -2669,10 +2674,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
@@ -2688,10 +2693,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
@@ -2707,10 +2712,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
@@ -2726,10 +2731,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
@@ -2745,10 +2750,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -2764,10 +2769,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
@@ -2783,10 +2788,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
@@ -2802,10 +2807,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
@@ -2821,10 +2826,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
@@ -2840,10 +2845,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
@@ -2859,10 +2864,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
@@ -2878,10 +2883,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
@@ -2897,10 +2902,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
@@ -2916,10 +2921,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
@@ -2935,10 +2940,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
@@ -2954,10 +2959,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8"/>
@@ -2973,10 +2978,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8"/>
@@ -2992,10 +2997,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
@@ -3011,10 +3016,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
@@ -3030,10 +3035,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
@@ -3049,10 +3054,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
@@ -3068,10 +3073,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
@@ -3087,10 +3092,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
@@ -3106,10 +3111,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
@@ -3125,10 +3130,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
@@ -3144,10 +3149,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
@@ -3163,10 +3168,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
@@ -3182,10 +3187,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
@@ -3201,10 +3206,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
@@ -3220,10 +3225,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
@@ -3239,10 +3244,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
@@ -3258,10 +3263,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
@@ -3277,10 +3282,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
@@ -3296,10 +3301,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
@@ -3315,10 +3320,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
@@ -3334,10 +3339,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
@@ -3353,10 +3358,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
@@ -3372,10 +3377,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
@@ -3391,10 +3396,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
@@ -3410,10 +3415,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
@@ -3429,10 +3434,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="8"/>
@@ -3448,10 +3453,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
@@ -3467,10 +3472,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
@@ -3486,10 +3491,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
@@ -3505,10 +3510,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -3524,10 +3529,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -3543,10 +3548,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
@@ -3562,10 +3567,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
@@ -3581,10 +3586,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
@@ -3600,10 +3605,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8"/>
@@ -3619,10 +3624,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -3638,10 +3643,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8"/>
@@ -3657,10 +3662,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
@@ -3676,10 +3681,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
@@ -3695,10 +3700,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
@@ -3714,10 +3719,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8"/>
@@ -3733,10 +3738,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8"/>
@@ -3752,10 +3757,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8"/>
@@ -3771,10 +3776,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8"/>
@@ -3790,10 +3795,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8"/>
@@ -3809,10 +3814,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8"/>
@@ -3828,10 +3833,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="8"/>
@@ -3847,10 +3852,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="8"/>
@@ -3866,10 +3871,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="8"/>
@@ -3885,10 +3890,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="8"/>
@@ -3904,10 +3909,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="8"/>
@@ -4065,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4074,10 +4079,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
@@ -4087,10 +4092,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
@@ -4100,10 +4105,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9"/>
@@ -4113,10 +4118,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
@@ -4126,10 +4131,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -4139,10 +4144,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
@@ -4152,10 +4157,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -4165,10 +4170,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -4178,10 +4183,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -4191,10 +4196,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -4204,10 +4209,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
@@ -4217,10 +4222,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
@@ -4230,10 +4235,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -4243,10 +4248,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -4256,10 +4261,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
@@ -4269,10 +4274,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
@@ -4282,10 +4287,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
@@ -4295,10 +4300,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -4308,10 +4313,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -4321,10 +4326,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -4334,10 +4339,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -4347,10 +4352,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -4360,10 +4365,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -4373,10 +4378,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
@@ -4386,10 +4391,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
@@ -4399,10 +4404,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
@@ -4412,10 +4417,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
@@ -4425,10 +4430,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
@@ -4438,10 +4443,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
@@ -4451,10 +4456,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
@@ -4464,10 +4469,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
@@ -4477,10 +4482,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
@@ -4490,10 +4495,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
@@ -4503,10 +4508,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -4587,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4596,10 +4601,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
@@ -4609,10 +4614,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
@@ -4622,10 +4627,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9"/>
@@ -4635,10 +4640,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
@@ -4648,10 +4653,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -4661,10 +4666,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
@@ -4674,10 +4679,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -4687,10 +4692,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -4700,10 +4705,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -4713,10 +4718,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -4726,7 +4731,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -4739,10 +4744,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
@@ -4752,10 +4757,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -4765,10 +4770,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -4778,10 +4783,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
@@ -4791,10 +4796,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
@@ -4857,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="5"/>
@@ -4866,10 +4871,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="9"/>
@@ -4885,10 +4890,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
@@ -4904,10 +4909,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9"/>
@@ -4923,10 +4928,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
@@ -4942,10 +4947,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -4961,10 +4966,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
@@ -4980,10 +4985,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -4999,10 +5004,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -5018,10 +5023,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -5037,10 +5042,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -5056,10 +5061,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
@@ -5075,10 +5080,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
@@ -5094,10 +5099,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -5113,10 +5118,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -5132,10 +5137,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
@@ -5151,10 +5156,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
@@ -5170,10 +5175,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
@@ -5189,10 +5194,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -5208,10 +5213,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -5227,10 +5232,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -5246,10 +5251,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -5265,10 +5270,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -5284,10 +5289,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -5303,10 +5308,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="9"/>
@@ -5322,10 +5327,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="9"/>
@@ -5341,10 +5346,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="9"/>
@@ -5360,10 +5365,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="9"/>
@@ -5379,10 +5384,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="9"/>
@@ -5398,10 +5403,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="9"/>
@@ -5417,10 +5422,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="9"/>
@@ -5436,10 +5441,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
@@ -5455,10 +5460,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
@@ -5474,10 +5479,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
@@ -5493,10 +5498,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -5512,10 +5517,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
@@ -5531,10 +5536,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
@@ -5550,10 +5555,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
@@ -5569,10 +5574,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="9"/>
@@ -5588,10 +5593,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="9"/>
@@ -5607,10 +5612,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
@@ -5626,10 +5631,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9"/>
@@ -5645,10 +5650,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="9"/>
@@ -5664,10 +5669,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="9"/>
@@ -5683,10 +5688,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
@@ -5702,10 +5707,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="9"/>
@@ -5721,10 +5726,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="9"/>
@@ -5740,10 +5745,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="9"/>
@@ -5759,10 +5764,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="9"/>
@@ -5778,10 +5783,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="9"/>
@@ -5797,10 +5802,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9"/>
@@ -5816,10 +5821,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>415</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="9"/>
@@ -5835,10 +5840,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="9"/>
@@ -5854,10 +5859,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>420</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="9"/>
@@ -5873,10 +5878,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="9"/>
@@ -5892,10 +5897,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="9"/>
@@ -5911,10 +5916,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="9"/>
@@ -5930,10 +5935,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="9"/>
@@ -5949,10 +5954,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="9"/>
@@ -5968,10 +5973,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="9"/>
@@ -5987,10 +5992,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="9"/>
@@ -6006,10 +6011,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="9"/>
@@ -6025,10 +6030,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="9"/>
@@ -6044,10 +6049,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="9"/>
@@ -6063,10 +6068,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="9"/>
@@ -6082,10 +6087,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="9"/>
@@ -6101,10 +6106,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="9"/>
@@ -6120,10 +6125,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="9"/>
@@ -6139,10 +6144,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9"/>
@@ -6158,10 +6163,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
@@ -6177,10 +6182,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="9"/>
@@ -6196,10 +6201,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="9"/>
@@ -6215,10 +6220,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="9"/>
@@ -6234,10 +6239,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="9"/>
@@ -6253,10 +6258,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="9"/>
@@ -6272,10 +6277,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="9"/>
@@ -6291,10 +6296,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="9"/>
@@ -6310,10 +6315,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
@@ -6329,10 +6334,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
@@ -6348,10 +6353,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
@@ -6367,10 +6372,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="9"/>
@@ -6386,10 +6391,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="9"/>
@@ -6405,10 +6410,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
@@ -6424,10 +6429,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
@@ -6443,10 +6448,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="9"/>
@@ -6462,10 +6467,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="9"/>
@@ -6481,10 +6486,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="9"/>
@@ -6500,10 +6505,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="9"/>
@@ -6519,10 +6524,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="9"/>
@@ -6538,10 +6543,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="9"/>
@@ -6557,10 +6562,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="9"/>
@@ -6576,10 +6581,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="9"/>
@@ -6595,10 +6600,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
@@ -6614,10 +6619,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="9"/>
@@ -6633,10 +6638,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="9"/>
@@ -6652,10 +6657,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="9"/>
@@ -6671,10 +6676,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="9"/>
@@ -6690,10 +6695,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="9"/>
@@ -6709,10 +6714,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="9"/>
@@ -6728,10 +6733,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="9"/>
@@ -6747,10 +6752,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="9"/>
@@ -6766,10 +6771,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="9"/>
@@ -6785,10 +6790,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="9"/>
@@ -6804,10 +6809,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="9"/>
@@ -6823,10 +6828,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="9"/>
@@ -6842,10 +6847,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="9"/>
@@ -6861,10 +6866,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="9"/>
@@ -6880,10 +6885,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="9"/>
@@ -6899,10 +6904,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="9"/>
@@ -6918,10 +6923,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="9"/>
@@ -6937,10 +6942,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="9"/>
@@ -6956,10 +6961,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="9"/>
@@ -6975,10 +6980,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="9"/>
@@ -6994,10 +6999,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="9"/>
@@ -7013,10 +7018,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="9"/>
@@ -7032,10 +7037,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="9"/>
@@ -7051,10 +7056,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="9"/>
@@ -7070,10 +7075,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="9"/>
@@ -7089,10 +7094,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="9"/>
@@ -7108,10 +7113,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="9"/>
@@ -7127,10 +7132,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="9"/>
@@ -7146,10 +7151,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="9"/>
@@ -7165,10 +7170,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="9"/>
@@ -7184,10 +7189,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="9"/>
@@ -7203,10 +7208,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="9"/>

--- a/Problems_list.xlsx
+++ b/Problems_list.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liosi\Documents\repos\rosalind\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E620C3B-8CF5-4EE2-B036-FC1A6E291E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bioinformatics Stronghold" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Algorithmic Heights" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Bioinformatics Armory" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Bioinformatics Textbook Track" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Bioinformatics Stronghold" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithmic Heights" sheetId="2" r:id="rId2"/>
+    <sheet name="Bioinformatics Armory" sheetId="3" r:id="rId3"/>
+    <sheet name="Bioinformatics Textbook Track" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,1702 +28,1699 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="562">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="562">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
   <si>
     <t xml:space="preserve"> Solved </t>
   </si>
   <si>
-    <t xml:space="preserve">Cheat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting DNA Nucleotides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcribing DNA into RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complementing a Strand of DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabbits and Recurrence Relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computing GC Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Point Mutations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendel's First Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translating RNA into Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding a Motif in DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consensus and Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortal Fibonacci Rabbits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlap Graphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculating Expected Offspring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding a Shared Motif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independent Alleles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding a Protein Motif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferring mRNA from Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Reading Frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerating Gene Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculating Protein Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locating Restriction Sites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA Splicing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerating k-mers Lexicographically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome Assembly as Shortest Superstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect Matchings and RNA Secondary Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial Permutations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Random Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerating Oriented Gene Orderings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSEQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding a Spliced Motif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transitions and Transversions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completing a Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalan Numbers and RNA Secondary Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Correction in Reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Phylogenetic Ancestors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k-Mer Composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speeding Up Motif Finding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding a Shared Spliced Motif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEXV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordering Strings of Varying Length Lexicographically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Matchings and RNA Secondary Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a Distance Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversal Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matching Random Motifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Subsets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Alternative Splicing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Number of Restriction Sites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOTZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motzkin Numbers and RNA Secondary Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distances in Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleaving Two Motifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Set Operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorting by Reversals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferring Protein from Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Pattern Matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparing Spectra with the Spectral Convolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTBL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a Character Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructing a De Bruijn Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferring Peptide from Full Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independent Segregation of Chromosomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITWV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding Disjoint Motifs in a Gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LREP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding the Longest Multiple Repeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newick Format with Edge Weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wobble Bonding and RNA Secondary Structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Disease Carriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a Character Table from Genetic Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Optimal Alignments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUNR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Unrooted Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Alignment with Scoring Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome Assembly with Perfect Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matching a Spectrum to a Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the Spectrum Graph to Infer Peptides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoding Suffix Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Character-Based Phylogeny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Quartets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerating Unrooted Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome Assembly Using Reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Alignment with Constant Gap Penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linguistic Complexity of a Genome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local Alignment with Scoring Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inferring Genotype from a Pedigree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximizing the Gap Symbols of an Optimal Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MREP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifying Maximal Repeats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a Restriction Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Rooted Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEXL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex-Linked Inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phylogeny Comparison with Split Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WFMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Wright-Fisher Model of Genetic Drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alignment-Based Phylogeny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessing Assembly Quality with N50 and N75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixing an Inconsistent Character Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wright-Fisher's Expected Behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Founder Effect and Genetic Drift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Alignment with Scoring Matrix and Affine Gap Penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome Assembly with Perfect Coverage and Repeats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlap Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QRTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartet Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding a Motif with Modifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semiglobal Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding All Similar Motifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local Alignment with Affine Gap Penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSYM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isolating Symbols in Alignments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifying Reversing Substitutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insertion Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-Degree Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majority Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breadth-First Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connected Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building a Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Way Partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Bipartiteness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Acyclicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dijkstra's Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Inversions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Way Partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Square in a Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellman-Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortest Cycle Through a Given Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topological Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamiltonian Path in DAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Weight Cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strongly Connected Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2SAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Satisfiability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Sink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-Connected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortest Paths in DAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to the Bioinformatics Armory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Protein Databases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenBank Introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Formats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Motif Discovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairwise Global Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FASTQ format introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Quality Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein Translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Filtration by Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RVCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suboptimal Local Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Quality Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Multiple Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding Genes with ORFs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Filtration by Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Probability of a Hidden Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Probability of an Outcome Given a Hidden Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement the Viterbi Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Probability of a String Emitted by an HMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a Profile HMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a Profile HMM with Pseudocounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform a Multiple Sequence Alignment with a Profile HMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimate the Parameters of an HMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Viterbi Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solve the Soft Decoding Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA10K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Baum-Welch Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the Graph of a Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement DecodingIdealSpectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Peptide into a Peptide Vector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Peptide Vector into a Peptide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence a Peptide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Highest-Scoring Peptide in a Proteome against a Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement PSMSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Size of a Spectral Dictionary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Probability of a Spectral Dictionary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA11J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Highest-Scoring Modified Peptide against a Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Number of Times a Pattern Appears in a Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Most Frequent Words in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Reverse Complement of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find All Occurrences of a Pattern in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Patterns Forming Clumps in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Position in a Genome Minimizing the Skew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Hamming Distance Between Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find All Approximate Occurrences of a Pattern in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Most Frequent Words with Mismatches in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Frequent Words with Mismatches and Reverse Complements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the Frequency Array of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement PatternToNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement NumberToPattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the d-Neighborhood of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement MotifEnumeration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Median String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Profile-most Probable k-mer in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement GreedyMotifSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement GreedyMotifSearch with Pseudocounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement RandomizedMotifSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement GibbsSampler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement DistanceBetweenPatternAndStrings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the k-mer Composition of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconstruct a String from its Genome Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the Overlap Graph of a Collection of k-mers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the De Bruijn Graph of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the De Bruijn Graph of a Collection of k-mers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find an Eulerian Cycle in a Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find an Eulerian Path in a Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconstruct a String from its k-mer Composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a k-Universal Circular String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconstruct a String from its Paired Composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate Contigs from a Collection of Reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a String Spelled by a Gapped Genome Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA3M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate All Maximal Non-Branching Paths in a Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translate an RNA String into an Amino Acid String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Substrings of a Genome Encoding a Given Amino Acid String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the Theoretical Spectrum of a Cyclic Peptide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Number of Peptides of Given Total Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Cyclic Peptide with Theoretical Spectrum Matching an Ideal Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Score of a Cyclic Peptide Against a Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement LeaderboardCyclopeptideSequencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the Convolution of a Spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement ConvolutionCyclopeptideSequencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the Theoretical Spectrum of a Linear Peptide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Score of a Linear Peptide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trim a Peptide Leaderboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA4M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solve the Turnpike Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Minimum Number of Coins Needed to Make Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Length of a Longest Path in a Manhattan-like Grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Longest Common Subsequence of Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Longest Path in a DAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Highest-Scoring Alignment of Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Highest-Scoring Local Alignment of Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Edit Distance Between Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Highest-Scoring Fitting Alignment of Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Highest-Scoring Overlap Alignment of Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Align Two Strings Using Affine Gap Penalties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Middle Edge in an Alignment Graph in Linear Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Align Two Strings Using Linear Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Highest-Scoring Multiple Sequence Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA5N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Topological Ordering of a DAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement GreedySorting to Sort a Permutation by Reversals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Number of Breakpoints in a Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the 2-Break Distance Between a Pair of Genomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Shortest Transformation of One Genome into Another by 2-Breaks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find All Shared k-mers of a Pair of Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement ChromosomeToCycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement CycleToChromosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement ColoredEdges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement GraphToGenome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement 2-BreakOnGenomeGraph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA6K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement 2-BreakOnGenome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute Distances Between Leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA7B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute Limb Lengths in a Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA7C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement AdditivePhylogeny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA7D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement UPGMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA7E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement the Neighbor Joining Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement SmallParsimony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA7G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapt SmallParsimony to Unrooted Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA8A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement FarthestFirstTraversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute the Squared Error Distortion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA8C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement the Lloyd Algorithm for k-Means Clustering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA8D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement the Soft k-Means Clustering Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA8E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Hierarchical Clustering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a Trie from a Collection of Patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement TrieMatching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the Suffix Tree of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Longest Repeat in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Longest Substring Shared by Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the Shortest Non-Shared Substring of Two Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the Suffix Array of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pattern Matching with the Suffix Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the Burrows-Wheeler Transform of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconstruct a String from its Burrows-Wheeler Transform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the Last-to-First Mapping of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement BWMatching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement BetterBWMatching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find All Occurrences of a Collection of Patterns in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find All Approximate Occurrences of a Collection of Patterns in a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement TreeColoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct the Partial Suffix Array of a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA9R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a Suffix Tree from a Suffix Array</t>
+    <t>Cheat</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Counting DNA Nucleotides</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>Transcribing DNA into RNA</t>
+  </si>
+  <si>
+    <t>REVC</t>
+  </si>
+  <si>
+    <t>Complementing a Strand of DNA</t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>Rabbits and Recurrence Relations</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Computing GC Content</t>
+  </si>
+  <si>
+    <t>HAMM</t>
+  </si>
+  <si>
+    <t>Counting Point Mutations</t>
+  </si>
+  <si>
+    <t>IPRB</t>
+  </si>
+  <si>
+    <t>Mendel's First Law</t>
+  </si>
+  <si>
+    <t>PROT</t>
+  </si>
+  <si>
+    <t>Translating RNA into Protein</t>
+  </si>
+  <si>
+    <t>SUBS</t>
+  </si>
+  <si>
+    <t>Finding a Motif in DNA</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>Consensus and Profile</t>
+  </si>
+  <si>
+    <t>FIBD</t>
+  </si>
+  <si>
+    <t>Mortal Fibonacci Rabbits</t>
+  </si>
+  <si>
+    <t>GRPH</t>
+  </si>
+  <si>
+    <t>Overlap Graphs</t>
+  </si>
+  <si>
+    <t>IEV</t>
+  </si>
+  <si>
+    <t>Calculating Expected Offspring</t>
+  </si>
+  <si>
+    <t>LCSM</t>
+  </si>
+  <si>
+    <t>Finding a Shared Motif</t>
+  </si>
+  <si>
+    <t>LIA</t>
+  </si>
+  <si>
+    <t>Independent Alleles</t>
+  </si>
+  <si>
+    <t>MPRT</t>
+  </si>
+  <si>
+    <t>Finding a Protein Motif</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>Inferring mRNA from Protein</t>
+  </si>
+  <si>
+    <t>ORF</t>
+  </si>
+  <si>
+    <t>Open Reading Frames</t>
+  </si>
+  <si>
+    <t>PERM</t>
+  </si>
+  <si>
+    <t>Enumerating Gene Orders</t>
+  </si>
+  <si>
+    <t>PRTM</t>
+  </si>
+  <si>
+    <t>Calculating Protein Mass</t>
+  </si>
+  <si>
+    <t>REVP</t>
+  </si>
+  <si>
+    <t>Locating Restriction Sites</t>
+  </si>
+  <si>
+    <t>SPLC</t>
+  </si>
+  <si>
+    <t>RNA Splicing</t>
+  </si>
+  <si>
+    <t>LEXF</t>
+  </si>
+  <si>
+    <t>Enumerating k-mers Lexicographically</t>
+  </si>
+  <si>
+    <t>LGIS</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>Genome Assembly as Shortest Superstring</t>
+  </si>
+  <si>
+    <t>PMCH</t>
+  </si>
+  <si>
+    <t>Perfect Matchings and RNA Secondary Structures</t>
+  </si>
+  <si>
+    <t>PPER</t>
+  </si>
+  <si>
+    <t>Partial Permutations</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>Introduction to Random Strings</t>
+  </si>
+  <si>
+    <t>SIGN</t>
+  </si>
+  <si>
+    <t>Enumerating Oriented Gene Orderings</t>
+  </si>
+  <si>
+    <t>SSEQ</t>
+  </si>
+  <si>
+    <t>Finding a Spliced Motif</t>
+  </si>
+  <si>
+    <t>TRAN</t>
+  </si>
+  <si>
+    <t>Transitions and Transversions</t>
+  </si>
+  <si>
+    <t>TREE</t>
+  </si>
+  <si>
+    <t>Completing a Tree</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Catalan Numbers and RNA Secondary Structures</t>
+  </si>
+  <si>
+    <t>CORR</t>
+  </si>
+  <si>
+    <t>Error Correction in Reads</t>
+  </si>
+  <si>
+    <t>INOD</t>
+  </si>
+  <si>
+    <t>Counting Phylogenetic Ancestors</t>
+  </si>
+  <si>
+    <t>KMER</t>
+  </si>
+  <si>
+    <t>k-Mer Composition</t>
+  </si>
+  <si>
+    <t>KMP</t>
+  </si>
+  <si>
+    <t>Speeding Up Motif Finding</t>
+  </si>
+  <si>
+    <t>LCSQ</t>
+  </si>
+  <si>
+    <t>Finding a Shared Spliced Motif</t>
+  </si>
+  <si>
+    <t>LEXV</t>
+  </si>
+  <si>
+    <t>Ordering Strings of Varying Length Lexicographically</t>
+  </si>
+  <si>
+    <t>MMCH</t>
+  </si>
+  <si>
+    <t>Maximum Matchings and RNA Secondary Structures</t>
+  </si>
+  <si>
+    <t>PDST</t>
+  </si>
+  <si>
+    <t>Creating a Distance Matrix</t>
+  </si>
+  <si>
+    <t>REAR</t>
+  </si>
+  <si>
+    <t>Reversal Distance</t>
+  </si>
+  <si>
+    <t>RSTR</t>
+  </si>
+  <si>
+    <t>Matching Random Motifs</t>
+  </si>
+  <si>
+    <t>SSET</t>
+  </si>
+  <si>
+    <t>Counting Subsets</t>
+  </si>
+  <si>
+    <t>ASPC</t>
+  </si>
+  <si>
+    <t>Introduction to Alternative Splicing</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>EVAL</t>
+  </si>
+  <si>
+    <t>Expected Number of Restriction Sites</t>
+  </si>
+  <si>
+    <t>MOTZ</t>
+  </si>
+  <si>
+    <t>Motzkin Numbers and RNA Secondary Structures</t>
+  </si>
+  <si>
+    <t>NWCK</t>
+  </si>
+  <si>
+    <t>Distances in Trees</t>
+  </si>
+  <si>
+    <t>SCSP</t>
+  </si>
+  <si>
+    <t>Interleaving Two Motifs</t>
+  </si>
+  <si>
+    <t>SETO</t>
+  </si>
+  <si>
+    <t>Introduction to Set Operations</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t>Sorting by Reversals</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>Inferring Protein from Spectrum</t>
+  </si>
+  <si>
+    <t>TRIE</t>
+  </si>
+  <si>
+    <t>Introduction to Pattern Matching</t>
+  </si>
+  <si>
+    <t>CONV</t>
+  </si>
+  <si>
+    <t>Comparing Spectra with the Spectral Convolution</t>
+  </si>
+  <si>
+    <t>CTBL</t>
+  </si>
+  <si>
+    <t>Creating a Character Table</t>
+  </si>
+  <si>
+    <t>DBRU</t>
+  </si>
+  <si>
+    <t>Constructing a De Bruijn Graph</t>
+  </si>
+  <si>
+    <t>EDTA</t>
+  </si>
+  <si>
+    <t>Edit Distance Alignment</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>Inferring Peptide from Full Spectrum</t>
+  </si>
+  <si>
+    <t>INDC</t>
+  </si>
+  <si>
+    <t>Independent Segregation of Chromosomes</t>
+  </si>
+  <si>
+    <t>ITWV</t>
+  </si>
+  <si>
+    <t>Finding Disjoint Motifs in a Gene</t>
+  </si>
+  <si>
+    <t>LREP</t>
+  </si>
+  <si>
+    <t>Finding the Longest Multiple Repeat</t>
+  </si>
+  <si>
+    <t>NKEW</t>
+  </si>
+  <si>
+    <t>Newick Format with Edge Weights</t>
+  </si>
+  <si>
+    <t>RNAS</t>
+  </si>
+  <si>
+    <t>Wobble Bonding and RNA Secondary Structures</t>
+  </si>
+  <si>
+    <t>AFRQ</t>
+  </si>
+  <si>
+    <t>Counting Disease Carriers</t>
+  </si>
+  <si>
+    <t>CSTR</t>
+  </si>
+  <si>
+    <t>Creating a Character Table from Genetic Strings</t>
+  </si>
+  <si>
+    <t>CTEA</t>
+  </si>
+  <si>
+    <t>Counting Optimal Alignments</t>
+  </si>
+  <si>
+    <t>CUNR</t>
+  </si>
+  <si>
+    <t>Counting Unrooted Binary Trees</t>
+  </si>
+  <si>
+    <t>GLOB</t>
+  </si>
+  <si>
+    <t>Global Alignment with Scoring Matrix</t>
+  </si>
+  <si>
+    <t>PCOV</t>
+  </si>
+  <si>
+    <t>Genome Assembly with Perfect Coverage</t>
+  </si>
+  <si>
+    <t>PRSM</t>
+  </si>
+  <si>
+    <t>Matching a Spectrum to a Protein</t>
+  </si>
+  <si>
+    <t>QRT</t>
+  </si>
+  <si>
+    <t>Quartets</t>
+  </si>
+  <si>
+    <t>SGRA</t>
+  </si>
+  <si>
+    <t>Using the Spectrum Graph to Infer Peptides</t>
+  </si>
+  <si>
+    <t>SUFF</t>
+  </si>
+  <si>
+    <t>Encoding Suffix Trees</t>
+  </si>
+  <si>
+    <t>CHBP</t>
+  </si>
+  <si>
+    <t>Character-Based Phylogeny</t>
+  </si>
+  <si>
+    <t>CNTQ</t>
+  </si>
+  <si>
+    <t>Counting Quartets</t>
+  </si>
+  <si>
+    <t>EUBT</t>
+  </si>
+  <si>
+    <t>Enumerating Unrooted Binary Trees</t>
+  </si>
+  <si>
+    <t>GASM</t>
+  </si>
+  <si>
+    <t>Genome Assembly Using Reads</t>
+  </si>
+  <si>
+    <t>GCON</t>
+  </si>
+  <si>
+    <t>Global Alignment with Constant Gap Penalty</t>
+  </si>
+  <si>
+    <t>LING</t>
+  </si>
+  <si>
+    <t>Linguistic Complexity of a Genome</t>
+  </si>
+  <si>
+    <t>LOCA</t>
+  </si>
+  <si>
+    <t>Local Alignment with Scoring Matrix</t>
+  </si>
+  <si>
+    <t>MEND</t>
+  </si>
+  <si>
+    <t>Inferring Genotype from a Pedigree</t>
+  </si>
+  <si>
+    <t>MGAP</t>
+  </si>
+  <si>
+    <t>Maximizing the Gap Symbols of an Optimal Alignment</t>
+  </si>
+  <si>
+    <t>MREP</t>
+  </si>
+  <si>
+    <t>Identifying Maximal Repeats</t>
+  </si>
+  <si>
+    <t>MULT</t>
+  </si>
+  <si>
+    <t>Multiple Alignment</t>
+  </si>
+  <si>
+    <t>PDPL</t>
+  </si>
+  <si>
+    <t>Creating a Restriction Map</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>Counting Rooted Binary Trees</t>
+  </si>
+  <si>
+    <t>SEXL</t>
+  </si>
+  <si>
+    <t>Sex-Linked Inheritance</t>
+  </si>
+  <si>
+    <t>SPTD</t>
+  </si>
+  <si>
+    <t>Phylogeny Comparison with Split Distance</t>
+  </si>
+  <si>
+    <t>WFMD</t>
+  </si>
+  <si>
+    <t>The Wright-Fisher Model of Genetic Drift</t>
+  </si>
+  <si>
+    <t>ALPH</t>
+  </si>
+  <si>
+    <t>Alignment-Based Phylogeny</t>
+  </si>
+  <si>
+    <t>ASMQ</t>
+  </si>
+  <si>
+    <t>Assessing Assembly Quality with N50 and N75</t>
+  </si>
+  <si>
+    <t>CSET</t>
+  </si>
+  <si>
+    <t>Fixing an Inconsistent Character Set</t>
+  </si>
+  <si>
+    <t>EBIN</t>
+  </si>
+  <si>
+    <t>Wright-Fisher's Expected Behavior</t>
+  </si>
+  <si>
+    <t>FOUN</t>
+  </si>
+  <si>
+    <t>The Founder Effect and Genetic Drift</t>
+  </si>
+  <si>
+    <t>GAFF</t>
+  </si>
+  <si>
+    <t>Global Alignment with Scoring Matrix and Affine Gap Penalty</t>
+  </si>
+  <si>
+    <t>GREP</t>
+  </si>
+  <si>
+    <t>Genome Assembly with Perfect Coverage and Repeats</t>
+  </si>
+  <si>
+    <t>OAP</t>
+  </si>
+  <si>
+    <t>Overlap Alignment</t>
+  </si>
+  <si>
+    <t>QRTD</t>
+  </si>
+  <si>
+    <t>Quartet Distance</t>
+  </si>
+  <si>
+    <t>SIMS</t>
+  </si>
+  <si>
+    <t>Finding a Motif with Modifications</t>
+  </si>
+  <si>
+    <t>SMGB</t>
+  </si>
+  <si>
+    <t>Semiglobal Alignment</t>
+  </si>
+  <si>
+    <t>KSIM</t>
+  </si>
+  <si>
+    <t>Finding All Similar Motifs</t>
+  </si>
+  <si>
+    <t>LAFF</t>
+  </si>
+  <si>
+    <t>Local Alignment with Affine Gap Penalty</t>
+  </si>
+  <si>
+    <t>OSYM</t>
+  </si>
+  <si>
+    <t>Isolating Symbols in Alignments</t>
+  </si>
+  <si>
+    <t>RSUB</t>
+  </si>
+  <si>
+    <t>Identifying Reversing Substitutions</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>FIBO</t>
+  </si>
+  <si>
+    <t>Fibonacci Numbers</t>
+  </si>
+  <si>
+    <t>BINS</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>DEG</t>
+  </si>
+  <si>
+    <t>Degree Array</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>DDEG</t>
+  </si>
+  <si>
+    <t>Double-Degree Array</t>
+  </si>
+  <si>
+    <t>MAJ</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>2SUM</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Breadth-First Search</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Connected Components</t>
+  </si>
+  <si>
+    <t>HEA</t>
+  </si>
+  <si>
+    <t>Building a Heap</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>2-Way Partition</t>
+  </si>
+  <si>
+    <t>3SUM</t>
+  </si>
+  <si>
+    <t>BIP</t>
+  </si>
+  <si>
+    <t>Testing Bipartiteness</t>
+  </si>
+  <si>
+    <t>DAG</t>
+  </si>
+  <si>
+    <t>Testing Acyclicity</t>
+  </si>
+  <si>
+    <t>DIJ</t>
+  </si>
+  <si>
+    <t>Dijkstra's Algorithm</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>INV</t>
+  </si>
+  <si>
+    <t>Counting Inversions</t>
+  </si>
+  <si>
+    <t>PAR3</t>
+  </si>
+  <si>
+    <t>3-Way Partition</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Square in a Graph</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Bellman-Ford Algorithm</t>
+  </si>
+  <si>
+    <t>CTE</t>
+  </si>
+  <si>
+    <t>Shortest Cycle Through a Given Edge</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Partial Sort</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Topological Sorting</t>
+  </si>
+  <si>
+    <t>HDAG</t>
+  </si>
+  <si>
+    <t>Hamiltonian Path in DAG</t>
+  </si>
+  <si>
+    <t>NWC</t>
+  </si>
+  <si>
+    <t>Negative Weight Cycle</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Strongly Connected Components</t>
+  </si>
+  <si>
+    <t>2SAT</t>
+  </si>
+  <si>
+    <t>2-Satisfiability</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>General Sink</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Semi-Connected Graph</t>
+  </si>
+  <si>
+    <t>SDAG</t>
+  </si>
+  <si>
+    <t>Shortest Paths in DAG</t>
+  </si>
+  <si>
+    <t>INI</t>
+  </si>
+  <si>
+    <t>Introduction to the Bioinformatics Armory</t>
+  </si>
+  <si>
+    <t>DBPR</t>
+  </si>
+  <si>
+    <t>Introduction to Protein Databases</t>
+  </si>
+  <si>
+    <t>GBK</t>
+  </si>
+  <si>
+    <t>GenBank Introduction</t>
+  </si>
+  <si>
+    <t>FRMT</t>
+  </si>
+  <si>
+    <t>Data Formats</t>
+  </si>
+  <si>
+    <t>MEME</t>
+  </si>
+  <si>
+    <t>New Motif Discovery</t>
+  </si>
+  <si>
+    <t>NEED</t>
+  </si>
+  <si>
+    <t>Pairwise Global Alignment</t>
+  </si>
+  <si>
+    <t>TFSQ</t>
+  </si>
+  <si>
+    <t>FASTQ format introduction</t>
+  </si>
+  <si>
+    <t>PHRE</t>
+  </si>
+  <si>
+    <t>Read Quality Distribution</t>
+  </si>
+  <si>
+    <t>PTRA</t>
+  </si>
+  <si>
+    <t>Protein Translation</t>
+  </si>
+  <si>
+    <t>FILT</t>
+  </si>
+  <si>
+    <t>Read Filtration by Quality</t>
+  </si>
+  <si>
+    <t>RVCO</t>
+  </si>
+  <si>
+    <t>SUBO</t>
+  </si>
+  <si>
+    <t>Suboptimal Local Alignment</t>
+  </si>
+  <si>
+    <t>BPHR</t>
+  </si>
+  <si>
+    <t>Base Quality Distribution</t>
+  </si>
+  <si>
+    <t>CLUS</t>
+  </si>
+  <si>
+    <t>Global Multiple Alignment</t>
+  </si>
+  <si>
+    <t>ORFR</t>
+  </si>
+  <si>
+    <t>Finding Genes with ORFs</t>
+  </si>
+  <si>
+    <t>BFIL</t>
+  </si>
+  <si>
+    <t>Base Filtration by Quality</t>
+  </si>
+  <si>
+    <t>BA10A</t>
+  </si>
+  <si>
+    <t>Compute the Probability of a Hidden Path</t>
+  </si>
+  <si>
+    <t>BA10B</t>
+  </si>
+  <si>
+    <t>Compute the Probability of an Outcome Given a Hidden Path</t>
+  </si>
+  <si>
+    <t>BA10C</t>
+  </si>
+  <si>
+    <t>Implement the Viterbi Algorithm</t>
+  </si>
+  <si>
+    <t>BA10D</t>
+  </si>
+  <si>
+    <t>Compute the Probability of a String Emitted by an HMM</t>
+  </si>
+  <si>
+    <t>BA10E</t>
+  </si>
+  <si>
+    <t>Construct a Profile HMM</t>
+  </si>
+  <si>
+    <t>BA10F</t>
+  </si>
+  <si>
+    <t>Construct a Profile HMM with Pseudocounts</t>
+  </si>
+  <si>
+    <t>BA10G</t>
+  </si>
+  <si>
+    <t>Perform a Multiple Sequence Alignment with a Profile HMM</t>
+  </si>
+  <si>
+    <t>BA10H</t>
+  </si>
+  <si>
+    <t>Estimate the Parameters of an HMM</t>
+  </si>
+  <si>
+    <t>BA10I</t>
+  </si>
+  <si>
+    <t>Implement Viterbi Learning</t>
+  </si>
+  <si>
+    <t>BA10J</t>
+  </si>
+  <si>
+    <t>Solve the Soft Decoding Problem</t>
+  </si>
+  <si>
+    <t>BA10K</t>
+  </si>
+  <si>
+    <t>Implement Baum-Welch Learning</t>
+  </si>
+  <si>
+    <t>BA11A</t>
+  </si>
+  <si>
+    <t>Construct the Graph of a Spectrum</t>
+  </si>
+  <si>
+    <t>BA11B</t>
+  </si>
+  <si>
+    <t>Implement DecodingIdealSpectrum</t>
+  </si>
+  <si>
+    <t>BA11C</t>
+  </si>
+  <si>
+    <t>Convert a Peptide into a Peptide Vector</t>
+  </si>
+  <si>
+    <t>BA11D</t>
+  </si>
+  <si>
+    <t>Convert a Peptide Vector into a Peptide</t>
+  </si>
+  <si>
+    <t>BA11E</t>
+  </si>
+  <si>
+    <t>Sequence a Peptide</t>
+  </si>
+  <si>
+    <t>BA11F</t>
+  </si>
+  <si>
+    <t>Find a Highest-Scoring Peptide in a Proteome against a Spectrum</t>
+  </si>
+  <si>
+    <t>BA11G</t>
+  </si>
+  <si>
+    <t>Implement PSMSearch</t>
+  </si>
+  <si>
+    <t>BA11H</t>
+  </si>
+  <si>
+    <t>Compute the Size of a Spectral Dictionary</t>
+  </si>
+  <si>
+    <t>BA11I</t>
+  </si>
+  <si>
+    <t>Compute the Probability of a Spectral Dictionary</t>
+  </si>
+  <si>
+    <t>BA11J</t>
+  </si>
+  <si>
+    <t>Find a Highest-Scoring Modified Peptide against a Spectrum</t>
+  </si>
+  <si>
+    <t>BA1A</t>
+  </si>
+  <si>
+    <t>Compute the Number of Times a Pattern Appears in a Text</t>
+  </si>
+  <si>
+    <t>BA1B</t>
+  </si>
+  <si>
+    <t>Find the Most Frequent Words in a String</t>
+  </si>
+  <si>
+    <t>BA1C</t>
+  </si>
+  <si>
+    <t>Find the Reverse Complement of a String</t>
+  </si>
+  <si>
+    <t>BA1D</t>
+  </si>
+  <si>
+    <t>Find All Occurrences of a Pattern in a String</t>
+  </si>
+  <si>
+    <t>BA1E</t>
+  </si>
+  <si>
+    <t>Find Patterns Forming Clumps in a String</t>
+  </si>
+  <si>
+    <t>BA1F</t>
+  </si>
+  <si>
+    <t>Find a Position in a Genome Minimizing the Skew</t>
+  </si>
+  <si>
+    <t>BA1G</t>
+  </si>
+  <si>
+    <t>Compute the Hamming Distance Between Two Strings</t>
+  </si>
+  <si>
+    <t>BA1H</t>
+  </si>
+  <si>
+    <t>Find All Approximate Occurrences of a Pattern in a String</t>
+  </si>
+  <si>
+    <t>BA1I</t>
+  </si>
+  <si>
+    <t>Find the Most Frequent Words with Mismatches in a String</t>
+  </si>
+  <si>
+    <t>BA1J</t>
+  </si>
+  <si>
+    <t>Find Frequent Words with Mismatches and Reverse Complements</t>
+  </si>
+  <si>
+    <t>BA1K</t>
+  </si>
+  <si>
+    <t>Generate the Frequency Array of a String</t>
+  </si>
+  <si>
+    <t>BA1L</t>
+  </si>
+  <si>
+    <t>Implement PatternToNumber</t>
+  </si>
+  <si>
+    <t>BA1M</t>
+  </si>
+  <si>
+    <t>Implement NumberToPattern</t>
+  </si>
+  <si>
+    <t>BA1N</t>
+  </si>
+  <si>
+    <t>Generate the d-Neighborhood of a String</t>
+  </si>
+  <si>
+    <t>BA2A</t>
+  </si>
+  <si>
+    <t>Implement MotifEnumeration</t>
+  </si>
+  <si>
+    <t>BA2B</t>
+  </si>
+  <si>
+    <t>Find a Median String</t>
+  </si>
+  <si>
+    <t>BA2C</t>
+  </si>
+  <si>
+    <t>Find a Profile-most Probable k-mer in a String</t>
+  </si>
+  <si>
+    <t>BA2D</t>
+  </si>
+  <si>
+    <t>Implement GreedyMotifSearch</t>
+  </si>
+  <si>
+    <t>BA2E</t>
+  </si>
+  <si>
+    <t>Implement GreedyMotifSearch with Pseudocounts</t>
+  </si>
+  <si>
+    <t>BA2F</t>
+  </si>
+  <si>
+    <t>Implement RandomizedMotifSearch</t>
+  </si>
+  <si>
+    <t>BA2G</t>
+  </si>
+  <si>
+    <t>Implement GibbsSampler</t>
+  </si>
+  <si>
+    <t>BA2H</t>
+  </si>
+  <si>
+    <t>Implement DistanceBetweenPatternAndStrings</t>
+  </si>
+  <si>
+    <t>BA3A</t>
+  </si>
+  <si>
+    <t>Generate the k-mer Composition of a String</t>
+  </si>
+  <si>
+    <t>BA3B</t>
+  </si>
+  <si>
+    <t>Reconstruct a String from its Genome Path</t>
+  </si>
+  <si>
+    <t>BA3C</t>
+  </si>
+  <si>
+    <t>Construct the Overlap Graph of a Collection of k-mers</t>
+  </si>
+  <si>
+    <t>BA3D</t>
+  </si>
+  <si>
+    <t>Construct the De Bruijn Graph of a String</t>
+  </si>
+  <si>
+    <t>BA3E</t>
+  </si>
+  <si>
+    <t>Construct the De Bruijn Graph of a Collection of k-mers</t>
+  </si>
+  <si>
+    <t>BA3F</t>
+  </si>
+  <si>
+    <t>Find an Eulerian Cycle in a Graph</t>
+  </si>
+  <si>
+    <t>BA3G</t>
+  </si>
+  <si>
+    <t>Find an Eulerian Path in a Graph</t>
+  </si>
+  <si>
+    <t>BA3H</t>
+  </si>
+  <si>
+    <t>Reconstruct a String from its k-mer Composition</t>
+  </si>
+  <si>
+    <t>BA3I</t>
+  </si>
+  <si>
+    <t>Find a k-Universal Circular String</t>
+  </si>
+  <si>
+    <t>BA3J</t>
+  </si>
+  <si>
+    <t>Reconstruct a String from its Paired Composition</t>
+  </si>
+  <si>
+    <t>BA3K</t>
+  </si>
+  <si>
+    <t>Generate Contigs from a Collection of Reads</t>
+  </si>
+  <si>
+    <t>BA3L</t>
+  </si>
+  <si>
+    <t>Construct a String Spelled by a Gapped Genome Path</t>
+  </si>
+  <si>
+    <t>BA3M</t>
+  </si>
+  <si>
+    <t>Generate All Maximal Non-Branching Paths in a Graph</t>
+  </si>
+  <si>
+    <t>BA4A</t>
+  </si>
+  <si>
+    <t>Translate an RNA String into an Amino Acid String</t>
+  </si>
+  <si>
+    <t>BA4B</t>
+  </si>
+  <si>
+    <t>Find Substrings of a Genome Encoding a Given Amino Acid String</t>
+  </si>
+  <si>
+    <t>BA4C</t>
+  </si>
+  <si>
+    <t>Generate the Theoretical Spectrum of a Cyclic Peptide</t>
+  </si>
+  <si>
+    <t>BA4D</t>
+  </si>
+  <si>
+    <t>Compute the Number of Peptides of Given Total Mass</t>
+  </si>
+  <si>
+    <t>BA4E</t>
+  </si>
+  <si>
+    <t>Find a Cyclic Peptide with Theoretical Spectrum Matching an Ideal Spectrum</t>
+  </si>
+  <si>
+    <t>BA4F</t>
+  </si>
+  <si>
+    <t>Compute the Score of a Cyclic Peptide Against a Spectrum</t>
+  </si>
+  <si>
+    <t>BA4G</t>
+  </si>
+  <si>
+    <t>Implement LeaderboardCyclopeptideSequencing</t>
+  </si>
+  <si>
+    <t>BA4H</t>
+  </si>
+  <si>
+    <t>Generate the Convolution of a Spectrum</t>
+  </si>
+  <si>
+    <t>BA4I</t>
+  </si>
+  <si>
+    <t>Implement ConvolutionCyclopeptideSequencing</t>
+  </si>
+  <si>
+    <t>BA4J</t>
+  </si>
+  <si>
+    <t>Generate the Theoretical Spectrum of a Linear Peptide</t>
+  </si>
+  <si>
+    <t>BA4K</t>
+  </si>
+  <si>
+    <t>Compute the Score of a Linear Peptide</t>
+  </si>
+  <si>
+    <t>BA4L</t>
+  </si>
+  <si>
+    <t>Trim a Peptide Leaderboard</t>
+  </si>
+  <si>
+    <t>BA4M</t>
+  </si>
+  <si>
+    <t>Solve the Turnpike Problem</t>
+  </si>
+  <si>
+    <t>BA5A</t>
+  </si>
+  <si>
+    <t>Find the Minimum Number of Coins Needed to Make Change</t>
+  </si>
+  <si>
+    <t>BA5B</t>
+  </si>
+  <si>
+    <t>Find the Length of a Longest Path in a Manhattan-like Grid</t>
+  </si>
+  <si>
+    <t>BA5C</t>
+  </si>
+  <si>
+    <t>Find a Longest Common Subsequence of Two Strings</t>
+  </si>
+  <si>
+    <t>BA5D</t>
+  </si>
+  <si>
+    <t>Find the Longest Path in a DAG</t>
+  </si>
+  <si>
+    <t>BA5E</t>
+  </si>
+  <si>
+    <t>Find a Highest-Scoring Alignment of Two Strings</t>
+  </si>
+  <si>
+    <t>BA5F</t>
+  </si>
+  <si>
+    <t>Find a Highest-Scoring Local Alignment of Two Strings</t>
+  </si>
+  <si>
+    <t>BA5G</t>
+  </si>
+  <si>
+    <t>Compute the Edit Distance Between Two Strings</t>
+  </si>
+  <si>
+    <t>BA5H</t>
+  </si>
+  <si>
+    <t>Find a Highest-Scoring Fitting Alignment of Two Strings</t>
+  </si>
+  <si>
+    <t>BA5I</t>
+  </si>
+  <si>
+    <t>Find a Highest-Scoring Overlap Alignment of Two Strings</t>
+  </si>
+  <si>
+    <t>BA5J</t>
+  </si>
+  <si>
+    <t>Align Two Strings Using Affine Gap Penalties</t>
+  </si>
+  <si>
+    <t>BA5K</t>
+  </si>
+  <si>
+    <t>Find a Middle Edge in an Alignment Graph in Linear Space</t>
+  </si>
+  <si>
+    <t>BA5L</t>
+  </si>
+  <si>
+    <t>Align Two Strings Using Linear Space</t>
+  </si>
+  <si>
+    <t>BA5M</t>
+  </si>
+  <si>
+    <t>Find a Highest-Scoring Multiple Sequence Alignment</t>
+  </si>
+  <si>
+    <t>BA5N</t>
+  </si>
+  <si>
+    <t>Find a Topological Ordering of a DAG</t>
+  </si>
+  <si>
+    <t>BA6A</t>
+  </si>
+  <si>
+    <t>Implement GreedySorting to Sort a Permutation by Reversals</t>
+  </si>
+  <si>
+    <t>BA6B</t>
+  </si>
+  <si>
+    <t>Compute the Number of Breakpoints in a Permutation</t>
+  </si>
+  <si>
+    <t>BA6C</t>
+  </si>
+  <si>
+    <t>Compute the 2-Break Distance Between a Pair of Genomes</t>
+  </si>
+  <si>
+    <t>BA6D</t>
+  </si>
+  <si>
+    <t>Find a Shortest Transformation of One Genome into Another by 2-Breaks</t>
+  </si>
+  <si>
+    <t>BA6E</t>
+  </si>
+  <si>
+    <t>Find All Shared k-mers of a Pair of Strings</t>
+  </si>
+  <si>
+    <t>BA6F</t>
+  </si>
+  <si>
+    <t>Implement ChromosomeToCycle</t>
+  </si>
+  <si>
+    <t>BA6G</t>
+  </si>
+  <si>
+    <t>Implement CycleToChromosome</t>
+  </si>
+  <si>
+    <t>BA6H</t>
+  </si>
+  <si>
+    <t>Implement ColoredEdges</t>
+  </si>
+  <si>
+    <t>BA6I</t>
+  </si>
+  <si>
+    <t>Implement GraphToGenome</t>
+  </si>
+  <si>
+    <t>BA6J</t>
+  </si>
+  <si>
+    <t>Implement 2-BreakOnGenomeGraph</t>
+  </si>
+  <si>
+    <t>BA6K</t>
+  </si>
+  <si>
+    <t>Implement 2-BreakOnGenome</t>
+  </si>
+  <si>
+    <t>BA7A</t>
+  </si>
+  <si>
+    <t>Compute Distances Between Leaves</t>
+  </si>
+  <si>
+    <t>BA7B</t>
+  </si>
+  <si>
+    <t>Compute Limb Lengths in a Tree</t>
+  </si>
+  <si>
+    <t>BA7C</t>
+  </si>
+  <si>
+    <t>Implement AdditivePhylogeny</t>
+  </si>
+  <si>
+    <t>BA7D</t>
+  </si>
+  <si>
+    <t>Implement UPGMA</t>
+  </si>
+  <si>
+    <t>BA7E</t>
+  </si>
+  <si>
+    <t>Implement the Neighbor Joining Algorithm</t>
+  </si>
+  <si>
+    <t>BA7F</t>
+  </si>
+  <si>
+    <t>Implement SmallParsimony</t>
+  </si>
+  <si>
+    <t>BA7G</t>
+  </si>
+  <si>
+    <t>Adapt SmallParsimony to Unrooted Trees</t>
+  </si>
+  <si>
+    <t>BA8A</t>
+  </si>
+  <si>
+    <t>Implement FarthestFirstTraversal</t>
+  </si>
+  <si>
+    <t>BA8B</t>
+  </si>
+  <si>
+    <t>Compute the Squared Error Distortion</t>
+  </si>
+  <si>
+    <t>BA8C</t>
+  </si>
+  <si>
+    <t>Implement the Lloyd Algorithm for k-Means Clustering</t>
+  </si>
+  <si>
+    <t>BA8D</t>
+  </si>
+  <si>
+    <t>Implement the Soft k-Means Clustering Algorithm</t>
+  </si>
+  <si>
+    <t>BA8E</t>
+  </si>
+  <si>
+    <t>Implement Hierarchical Clustering</t>
+  </si>
+  <si>
+    <t>BA9A</t>
+  </si>
+  <si>
+    <t>Construct a Trie from a Collection of Patterns</t>
+  </si>
+  <si>
+    <t>BA9B</t>
+  </si>
+  <si>
+    <t>Implement TrieMatching</t>
+  </si>
+  <si>
+    <t>BA9C</t>
+  </si>
+  <si>
+    <t>Construct the Suffix Tree of a String</t>
+  </si>
+  <si>
+    <t>BA9D</t>
+  </si>
+  <si>
+    <t>Find the Longest Repeat in a String</t>
+  </si>
+  <si>
+    <t>BA9E</t>
+  </si>
+  <si>
+    <t>Find the Longest Substring Shared by Two Strings</t>
+  </si>
+  <si>
+    <t>BA9F</t>
+  </si>
+  <si>
+    <t>Find the Shortest Non-Shared Substring of Two Strings</t>
+  </si>
+  <si>
+    <t>BA9G</t>
+  </si>
+  <si>
+    <t>Construct the Suffix Array of a String</t>
+  </si>
+  <si>
+    <t>BA9H</t>
+  </si>
+  <si>
+    <t>Pattern Matching with the Suffix Array</t>
+  </si>
+  <si>
+    <t>BA9I</t>
+  </si>
+  <si>
+    <t>Construct the Burrows-Wheeler Transform of a String</t>
+  </si>
+  <si>
+    <t>BA9J</t>
+  </si>
+  <si>
+    <t>Reconstruct a String from its Burrows-Wheeler Transform</t>
+  </si>
+  <si>
+    <t>BA9K</t>
+  </si>
+  <si>
+    <t>Generate the Last-to-First Mapping of a String</t>
+  </si>
+  <si>
+    <t>BA9L</t>
+  </si>
+  <si>
+    <t>Implement BWMatching</t>
+  </si>
+  <si>
+    <t>BA9M</t>
+  </si>
+  <si>
+    <t>Implement BetterBWMatching</t>
+  </si>
+  <si>
+    <t>BA9N</t>
+  </si>
+  <si>
+    <t>Find All Occurrences of a Collection of Patterns in a String</t>
+  </si>
+  <si>
+    <t>BA9O</t>
+  </si>
+  <si>
+    <t>Find All Approximate Occurrences of a Collection of Patterns in a String</t>
+  </si>
+  <si>
+    <t>BA9P</t>
+  </si>
+  <si>
+    <t>Implement TreeColoring</t>
+  </si>
+  <si>
+    <t>BA9Q</t>
+  </si>
+  <si>
+    <t>Construct the Partial Suffix Array of a String</t>
+  </si>
+  <si>
+    <t>BA9R</t>
+  </si>
+  <si>
+    <t>Construct a Suffix Tree from a Suffix Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1726,22 +1728,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1770,7 +1757,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1778,105 +1765,366 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="2"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +2141,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +2156,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1923,7 +2171,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +2186,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1959,7 +2207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +2228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2001,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2022,7 +2270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2085,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -2104,7 +2352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2125,7 +2373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -2146,7 +2394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -2211,7 +2459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -2253,7 +2501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -2274,7 +2522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -2295,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -2337,7 +2585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2358,7 +2606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -2377,7 +2625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -2398,7 +2646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -2419,7 +2667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -2440,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -2461,7 +2709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -2480,7 +2728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -2501,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2520,7 +2768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -2539,7 +2787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -2558,7 +2806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -2577,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
@@ -2596,7 +2844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>76</v>
       </c>
@@ -2615,7 +2863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>78</v>
       </c>
@@ -2634,7 +2882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
@@ -2653,7 +2901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>82</v>
       </c>
@@ -2672,7 +2920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>84</v>
       </c>
@@ -2691,14 +2939,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="5" t="s">
         <v>13</v>
@@ -2710,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>88</v>
       </c>
@@ -2729,7 +2979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>90</v>
       </c>
@@ -2748,14 +2998,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5" t="s">
         <v>13</v>
@@ -2767,14 +3019,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="5" t="s">
         <v>13</v>
@@ -2786,7 +3040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>96</v>
       </c>
@@ -2805,7 +3059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>98</v>
       </c>
@@ -2824,7 +3078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>100</v>
       </c>
@@ -2843,7 +3097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>102</v>
       </c>
@@ -2862,7 +3116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>104</v>
       </c>
@@ -2881,7 +3135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>106</v>
       </c>
@@ -2900,7 +3154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>108</v>
       </c>
@@ -2919,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>110</v>
       </c>
@@ -2938,7 +3192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>112</v>
       </c>
@@ -2957,7 +3211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>114</v>
       </c>
@@ -2976,7 +3230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>116</v>
       </c>
@@ -2995,7 +3249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>118</v>
       </c>
@@ -3014,7 +3268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>120</v>
       </c>
@@ -3033,7 +3287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>122</v>
       </c>
@@ -3052,7 +3306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>124</v>
       </c>
@@ -3071,7 +3325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>126</v>
       </c>
@@ -3090,7 +3344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>128</v>
       </c>
@@ -3109,7 +3363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>130</v>
       </c>
@@ -3128,7 +3382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>132</v>
       </c>
@@ -3147,7 +3401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>134</v>
       </c>
@@ -3166,7 +3420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>136</v>
       </c>
@@ -3185,7 +3439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>138</v>
       </c>
@@ -3204,7 +3458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>140</v>
       </c>
@@ -3223,7 +3477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>142</v>
       </c>
@@ -3242,7 +3496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>144</v>
       </c>
@@ -3261,7 +3515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>146</v>
       </c>
@@ -3280,7 +3534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>148</v>
       </c>
@@ -3299,7 +3553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>150</v>
       </c>
@@ -3318,7 +3572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>152</v>
       </c>
@@ -3337,7 +3591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>154</v>
       </c>
@@ -3356,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>156</v>
       </c>
@@ -3375,7 +3629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>158</v>
       </c>
@@ -3394,7 +3648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>160</v>
       </c>
@@ -3413,7 +3667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>162</v>
       </c>
@@ -3432,7 +3686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>164</v>
       </c>
@@ -3451,7 +3705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>166</v>
       </c>
@@ -3470,7 +3724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>168</v>
       </c>
@@ -3489,7 +3743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>170</v>
       </c>
@@ -3508,7 +3762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>172</v>
       </c>
@@ -3527,7 +3781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>174</v>
       </c>
@@ -3546,7 +3800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>176</v>
       </c>
@@ -3565,7 +3819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>178</v>
       </c>
@@ -3584,7 +3838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>180</v>
       </c>
@@ -3603,7 +3857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>182</v>
       </c>
@@ -3622,7 +3876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>184</v>
       </c>
@@ -3641,7 +3895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>186</v>
       </c>
@@ -3660,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>188</v>
       </c>
@@ -3679,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
@@ -3698,7 +3952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>192</v>
       </c>
@@ -3717,7 +3971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>194</v>
       </c>
@@ -3736,7 +3990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>196</v>
       </c>
@@ -3755,7 +4009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>198</v>
       </c>
@@ -3774,7 +4028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>200</v>
       </c>
@@ -3793,7 +4047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>202</v>
       </c>
@@ -3812,7 +4066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>204</v>
       </c>
@@ -3831,7 +4085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>206</v>
       </c>
@@ -3850,7 +4104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>208</v>
       </c>
@@ -3869,7 +4123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>210</v>
       </c>
@@ -3888,7 +4142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>212</v>
       </c>
@@ -3907,7 +4161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>214</v>
       </c>
@@ -3928,116 +4182,115 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Counting DNA Nucleotides"/>
-    <hyperlink ref="B3" r:id="rId2" display="Transcribing DNA into RNA"/>
-    <hyperlink ref="B4" r:id="rId3" display="Complementing a Strand of DNA"/>
-    <hyperlink ref="B5" r:id="rId4" display="Rabbits and Recurrence Relations"/>
-    <hyperlink ref="B6" r:id="rId5" display="Computing GC Content"/>
-    <hyperlink ref="B7" r:id="rId6" display="Counting Point Mutations"/>
-    <hyperlink ref="B8" r:id="rId7" display="Mendel's First Law"/>
-    <hyperlink ref="B9" r:id="rId8" display="Translating RNA into Protein"/>
-    <hyperlink ref="B10" r:id="rId9" display="Finding a Motif in DNA"/>
-    <hyperlink ref="B11" r:id="rId10" display="Consensus and Profile"/>
-    <hyperlink ref="B12" r:id="rId11" display="Mortal Fibonacci Rabbits"/>
-    <hyperlink ref="B13" r:id="rId12" display="Overlap Graphs"/>
-    <hyperlink ref="B14" r:id="rId13" display="Calculating Expected Offspring"/>
-    <hyperlink ref="B15" r:id="rId14" display="Finding a Shared Motif"/>
-    <hyperlink ref="B16" r:id="rId15" display="Independent Alleles"/>
-    <hyperlink ref="B17" r:id="rId16" display="Finding a Protein Motif"/>
-    <hyperlink ref="B18" r:id="rId17" display="Inferring mRNA from Protein"/>
-    <hyperlink ref="B19" r:id="rId18" display="Open Reading Frames"/>
-    <hyperlink ref="B20" r:id="rId19" display="Enumerating Gene Orders"/>
-    <hyperlink ref="B21" r:id="rId20" display="Calculating Protein Mass"/>
-    <hyperlink ref="B22" r:id="rId21" display="Locating Restriction Sites"/>
-    <hyperlink ref="B23" r:id="rId22" display="RNA Splicing"/>
-    <hyperlink ref="B24" r:id="rId23" display="Enumerating k-mers Lexicographically"/>
-    <hyperlink ref="B25" r:id="rId24" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B26" r:id="rId25" display="Genome Assembly as Shortest Superstring"/>
-    <hyperlink ref="B27" r:id="rId26" display="Perfect Matchings and RNA Secondary Structures"/>
-    <hyperlink ref="B28" r:id="rId27" display="Partial Permutations"/>
-    <hyperlink ref="B29" r:id="rId28" display="Introduction to Random Strings"/>
-    <hyperlink ref="B30" r:id="rId29" display="Enumerating Oriented Gene Orderings"/>
-    <hyperlink ref="B31" r:id="rId30" display="Finding a Spliced Motif"/>
-    <hyperlink ref="B32" r:id="rId31" display="Transitions and Transversions"/>
-    <hyperlink ref="B33" r:id="rId32" display="Completing a Tree"/>
-    <hyperlink ref="B34" r:id="rId33" display="Catalan Numbers and RNA Secondary Structures"/>
-    <hyperlink ref="B35" r:id="rId34" display="Error Correction in Reads"/>
-    <hyperlink ref="B36" r:id="rId35" display="Counting Phylogenetic Ancestors"/>
-    <hyperlink ref="B37" r:id="rId36" display="k-Mer Composition"/>
-    <hyperlink ref="B38" r:id="rId37" display="Speeding Up Motif Finding"/>
-    <hyperlink ref="B39" r:id="rId38" display="Finding a Shared Spliced Motif"/>
-    <hyperlink ref="B40" r:id="rId39" display="Ordering Strings of Varying Length Lexicographically"/>
-    <hyperlink ref="B41" r:id="rId40" display="Maximum Matchings and RNA Secondary Structures"/>
-    <hyperlink ref="B42" r:id="rId41" display="Creating a Distance Matrix"/>
-    <hyperlink ref="B43" r:id="rId42" display="Reversal Distance"/>
-    <hyperlink ref="B44" r:id="rId43" display="Matching Random Motifs"/>
-    <hyperlink ref="B45" r:id="rId44" display="Counting Subsets"/>
-    <hyperlink ref="B46" r:id="rId45" display="Introduction to Alternative Splicing"/>
-    <hyperlink ref="B47" r:id="rId46" display="Edit Distance"/>
-    <hyperlink ref="B48" r:id="rId47" display="Expected Number of Restriction Sites"/>
-    <hyperlink ref="B49" r:id="rId48" display="Motzkin Numbers and RNA Secondary Structures"/>
-    <hyperlink ref="B50" r:id="rId49" display="Distances in Trees"/>
-    <hyperlink ref="B51" r:id="rId50" display="Interleaving Two Motifs"/>
-    <hyperlink ref="B52" r:id="rId51" display="Introduction to Set Operations"/>
-    <hyperlink ref="B53" r:id="rId52" display="Sorting by Reversals"/>
-    <hyperlink ref="B54" r:id="rId53" display="Inferring Protein from Spectrum"/>
-    <hyperlink ref="B55" r:id="rId54" display="Introduction to Pattern Matching"/>
-    <hyperlink ref="B56" r:id="rId55" display="Comparing Spectra with the Spectral Convolution"/>
-    <hyperlink ref="B57" r:id="rId56" display="Creating a Character Table"/>
-    <hyperlink ref="B58" r:id="rId57" display="Constructing a De Bruijn Graph"/>
-    <hyperlink ref="B59" r:id="rId58" display="Edit Distance Alignment"/>
-    <hyperlink ref="B60" r:id="rId59" display="Inferring Peptide from Full Spectrum"/>
-    <hyperlink ref="B61" r:id="rId60" display="Independent Segregation of Chromosomes"/>
-    <hyperlink ref="B62" r:id="rId61" display="Finding Disjoint Motifs in a Gene"/>
-    <hyperlink ref="B63" r:id="rId62" display="Finding the Longest Multiple Repeat"/>
-    <hyperlink ref="B64" r:id="rId63" display="Newick Format with Edge Weights"/>
-    <hyperlink ref="B65" r:id="rId64" display="Wobble Bonding and RNA Secondary Structures"/>
-    <hyperlink ref="B66" r:id="rId65" display="Counting Disease Carriers"/>
-    <hyperlink ref="B67" r:id="rId66" display="Creating a Character Table from Genetic Strings"/>
-    <hyperlink ref="B68" r:id="rId67" display="Counting Optimal Alignments"/>
-    <hyperlink ref="B69" r:id="rId68" display="Counting Unrooted Binary Trees"/>
-    <hyperlink ref="B70" r:id="rId69" display="Global Alignment with Scoring Matrix"/>
-    <hyperlink ref="B71" r:id="rId70" display="Genome Assembly with Perfect Coverage"/>
-    <hyperlink ref="B72" r:id="rId71" display="Matching a Spectrum to a Protein"/>
-    <hyperlink ref="B73" r:id="rId72" display="Quartets"/>
-    <hyperlink ref="B74" r:id="rId73" display="Using the Spectrum Graph to Infer Peptides"/>
-    <hyperlink ref="B75" r:id="rId74" display="Encoding Suffix Trees"/>
-    <hyperlink ref="B76" r:id="rId75" display="Character-Based Phylogeny"/>
-    <hyperlink ref="B77" r:id="rId76" display="Counting Quartets"/>
-    <hyperlink ref="B78" r:id="rId77" display="Enumerating Unrooted Binary Trees"/>
-    <hyperlink ref="B79" r:id="rId78" display="Genome Assembly Using Reads"/>
-    <hyperlink ref="B80" r:id="rId79" display="Global Alignment with Constant Gap Penalty"/>
-    <hyperlink ref="B81" r:id="rId80" display="Linguistic Complexity of a Genome"/>
-    <hyperlink ref="B82" r:id="rId81" display="Local Alignment with Scoring Matrix"/>
-    <hyperlink ref="B83" r:id="rId82" display="Inferring Genotype from a Pedigree"/>
-    <hyperlink ref="B84" r:id="rId83" display="Maximizing the Gap Symbols of an Optimal Alignment"/>
-    <hyperlink ref="B85" r:id="rId84" display="Identifying Maximal Repeats"/>
-    <hyperlink ref="B86" r:id="rId85" display="Multiple Alignment"/>
-    <hyperlink ref="B87" r:id="rId86" display="Creating a Restriction Map"/>
-    <hyperlink ref="B88" r:id="rId87" display="Counting Rooted Binary Trees"/>
-    <hyperlink ref="B89" r:id="rId88" display="Sex-Linked Inheritance"/>
-    <hyperlink ref="B90" r:id="rId89" display="Phylogeny Comparison with Split Distance"/>
-    <hyperlink ref="B91" r:id="rId90" display="The Wright-Fisher Model of Genetic Drift"/>
-    <hyperlink ref="B92" r:id="rId91" display="Alignment-Based Phylogeny"/>
-    <hyperlink ref="B93" r:id="rId92" display="Assessing Assembly Quality with N50 and N75"/>
-    <hyperlink ref="B94" r:id="rId93" display="Fixing an Inconsistent Character Set"/>
-    <hyperlink ref="B95" r:id="rId94" display="Wright-Fisher's Expected Behavior"/>
-    <hyperlink ref="B96" r:id="rId95" display="The Founder Effect and Genetic Drift"/>
-    <hyperlink ref="B97" r:id="rId96" display="Global Alignment with Scoring Matrix and Affine Gap Penalty"/>
-    <hyperlink ref="B98" r:id="rId97" display="Genome Assembly with Perfect Coverage and Repeats"/>
-    <hyperlink ref="B99" r:id="rId98" display="Overlap Alignment"/>
-    <hyperlink ref="B100" r:id="rId99" display="Quartet Distance"/>
-    <hyperlink ref="B101" r:id="rId100" display="Finding a Motif with Modifications"/>
-    <hyperlink ref="B102" r:id="rId101" display="Semiglobal Alignment"/>
-    <hyperlink ref="B103" r:id="rId102" display="Finding All Similar Motifs"/>
-    <hyperlink ref="B104" r:id="rId103" display="Local Alignment with Affine Gap Penalty"/>
-    <hyperlink ref="B105" r:id="rId104" display="Isolating Symbols in Alignments"/>
-    <hyperlink ref="B106" r:id="rId105" display="Identifying Reversing Substitutions"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4045,24 +4298,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4077,7 +4327,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>217</v>
       </c>
@@ -4090,7 +4340,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>219</v>
       </c>
@@ -4103,7 +4353,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>221</v>
       </c>
@@ -4116,7 +4366,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>223</v>
       </c>
@@ -4129,7 +4379,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>225</v>
       </c>
@@ -4142,7 +4392,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>227</v>
       </c>
@@ -4155,7 +4405,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>229</v>
       </c>
@@ -4168,7 +4418,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>231</v>
       </c>
@@ -4181,7 +4431,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>232</v>
       </c>
@@ -4194,7 +4444,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>234</v>
       </c>
@@ -4207,7 +4457,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>236</v>
       </c>
@@ -4220,7 +4470,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>238</v>
       </c>
@@ -4233,7 +4483,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>240</v>
       </c>
@@ -4246,7 +4496,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>242</v>
       </c>
@@ -4259,7 +4509,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>243</v>
       </c>
@@ -4272,7 +4522,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>245</v>
       </c>
@@ -4285,7 +4535,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>247</v>
       </c>
@@ -4298,7 +4548,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>249</v>
       </c>
@@ -4311,7 +4561,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>251</v>
       </c>
@@ -4324,7 +4574,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>253</v>
       </c>
@@ -4337,7 +4587,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>255</v>
       </c>
@@ -4350,7 +4600,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>257</v>
       </c>
@@ -4363,7 +4613,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>259</v>
       </c>
@@ -4376,7 +4626,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>261</v>
       </c>
@@ -4389,7 +4639,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>263</v>
       </c>
@@ -4402,7 +4652,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>265</v>
       </c>
@@ -4415,7 +4665,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>267</v>
       </c>
@@ -4428,7 +4678,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>269</v>
       </c>
@@ -4441,7 +4691,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>271</v>
       </c>
@@ -4454,7 +4704,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>273</v>
       </c>
@@ -4467,7 +4717,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>275</v>
       </c>
@@ -4480,7 +4730,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>277</v>
       </c>
@@ -4493,7 +4743,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>279</v>
       </c>
@@ -4506,7 +4756,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>281</v>
       </c>
@@ -4521,45 +4771,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Fibonacci Numbers"/>
-    <hyperlink ref="B3" r:id="rId2" display="Binary Search"/>
-    <hyperlink ref="B4" r:id="rId3" display="Degree Array"/>
-    <hyperlink ref="B5" r:id="rId4" display="Insertion Sort"/>
-    <hyperlink ref="B6" r:id="rId5" display="Double-Degree Array"/>
-    <hyperlink ref="B7" r:id="rId6" display="Majority Element"/>
-    <hyperlink ref="B8" r:id="rId7" display="Merge Two Sorted Arrays"/>
-    <hyperlink ref="B9" r:id="rId8" display="2SUM"/>
-    <hyperlink ref="B10" r:id="rId9" display="Breadth-First Search"/>
-    <hyperlink ref="B11" r:id="rId10" display="Connected Components"/>
-    <hyperlink ref="B12" r:id="rId11" display="Building a Heap"/>
-    <hyperlink ref="B13" r:id="rId12" display="Merge Sort"/>
-    <hyperlink ref="B14" r:id="rId13" display="2-Way Partition"/>
-    <hyperlink ref="B15" r:id="rId14" display="3SUM"/>
-    <hyperlink ref="B16" r:id="rId15" display="Testing Bipartiteness"/>
-    <hyperlink ref="B17" r:id="rId16" display="Testing Acyclicity"/>
-    <hyperlink ref="B18" r:id="rId17" display="Dijkstra's Algorithm"/>
-    <hyperlink ref="B19" r:id="rId18" display="Heap Sort"/>
-    <hyperlink ref="B20" r:id="rId19" display="Counting Inversions"/>
-    <hyperlink ref="B21" r:id="rId20" display="3-Way Partition"/>
-    <hyperlink ref="B22" r:id="rId21" display="Square in a Graph"/>
-    <hyperlink ref="B23" r:id="rId22" display="Bellman-Ford Algorithm"/>
-    <hyperlink ref="B24" r:id="rId23" display="Shortest Cycle Through a Given Edge"/>
-    <hyperlink ref="B25" r:id="rId24" display="Median"/>
-    <hyperlink ref="B26" r:id="rId25" display="Partial Sort"/>
-    <hyperlink ref="B27" r:id="rId26" display="Topological Sorting"/>
-    <hyperlink ref="B28" r:id="rId27" display="Hamiltonian Path in DAG"/>
-    <hyperlink ref="B29" r:id="rId28" display="Negative Weight Cycle"/>
-    <hyperlink ref="B30" r:id="rId29" display="Quick Sort"/>
-    <hyperlink ref="B31" r:id="rId30" display="Strongly Connected Components"/>
-    <hyperlink ref="B32" r:id="rId31" display="2-Satisfiability"/>
-    <hyperlink ref="B33" r:id="rId32" display="General Sink"/>
-    <hyperlink ref="B34" r:id="rId33" display="Semi-Connected Graph"/>
-    <hyperlink ref="B35" r:id="rId34" display="Shortest Paths in DAG"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4567,24 +4816,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4599,7 +4845,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>283</v>
       </c>
@@ -4612,7 +4858,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>285</v>
       </c>
@@ -4625,7 +4871,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>287</v>
       </c>
@@ -4638,7 +4884,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>289</v>
       </c>
@@ -4651,7 +4897,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>291</v>
       </c>
@@ -4664,7 +4910,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>293</v>
       </c>
@@ -4677,7 +4923,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>295</v>
       </c>
@@ -4690,7 +4936,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>297</v>
       </c>
@@ -4703,7 +4949,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>299</v>
       </c>
@@ -4716,7 +4962,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>301</v>
       </c>
@@ -4729,7 +4975,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>303</v>
       </c>
@@ -4742,7 +4988,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>304</v>
       </c>
@@ -4755,7 +5001,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>306</v>
       </c>
@@ -4768,7 +5014,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>308</v>
       </c>
@@ -4781,7 +5027,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>310</v>
       </c>
@@ -4794,7 +5040,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>312</v>
       </c>
@@ -4809,27 +5055,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Introduction to the Bioinformatics Armory"/>
-    <hyperlink ref="B3" r:id="rId2" display="Introduction to Protein Databases"/>
-    <hyperlink ref="B4" r:id="rId3" display="GenBank Introduction"/>
-    <hyperlink ref="B5" r:id="rId4" display="Data Formats"/>
-    <hyperlink ref="B6" r:id="rId5" display="New Motif Discovery"/>
-    <hyperlink ref="B7" r:id="rId6" display="Pairwise Global Alignment"/>
-    <hyperlink ref="B8" r:id="rId7" display="FASTQ format introduction"/>
-    <hyperlink ref="B9" r:id="rId8" display="Read Quality Distribution"/>
-    <hyperlink ref="B10" r:id="rId9" display="Protein Translation"/>
-    <hyperlink ref="B11" r:id="rId10" display="Read Filtration by Quality"/>
-    <hyperlink ref="B12" r:id="rId11" display="Complementing a Strand of DNA"/>
-    <hyperlink ref="B13" r:id="rId12" display="Suboptimal Local Alignment"/>
-    <hyperlink ref="B14" r:id="rId13" display="Base Quality Distribution"/>
-    <hyperlink ref="B15" r:id="rId14" display="Global Multiple Alignment"/>
-    <hyperlink ref="B16" r:id="rId15" display="Finding Genes with ORFs"/>
-    <hyperlink ref="B17" r:id="rId16" display="Base Filtration by Quality"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4837,24 +5082,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4869,7 +5111,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>314</v>
       </c>
@@ -4888,7 +5130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>316</v>
       </c>
@@ -4907,7 +5149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>318</v>
       </c>
@@ -4926,7 +5168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>320</v>
       </c>
@@ -4945,7 +5187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>322</v>
       </c>
@@ -4964,7 +5206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>324</v>
       </c>
@@ -4983,7 +5225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>326</v>
       </c>
@@ -5002,7 +5244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>328</v>
       </c>
@@ -5021,7 +5263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>330</v>
       </c>
@@ -5040,7 +5282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>332</v>
       </c>
@@ -5059,7 +5301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>334</v>
       </c>
@@ -5078,7 +5320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>336</v>
       </c>
@@ -5097,7 +5339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>338</v>
       </c>
@@ -5116,7 +5358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>340</v>
       </c>
@@ -5135,7 +5377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>342</v>
       </c>
@@ -5154,7 +5396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>344</v>
       </c>
@@ -5173,7 +5415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>346</v>
       </c>
@@ -5192,7 +5434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>348</v>
       </c>
@@ -5211,7 +5453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>350</v>
       </c>
@@ -5230,7 +5472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>352</v>
       </c>
@@ -5249,7 +5491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>354</v>
       </c>
@@ -5268,7 +5510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>356</v>
       </c>
@@ -5287,7 +5529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>358</v>
       </c>
@@ -5306,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>360</v>
       </c>
@@ -5325,7 +5567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>362</v>
       </c>
@@ -5344,7 +5586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>364</v>
       </c>
@@ -5363,7 +5605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>366</v>
       </c>
@@ -5382,7 +5624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>368</v>
       </c>
@@ -5401,7 +5643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>370</v>
       </c>
@@ -5420,7 +5662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>372</v>
       </c>
@@ -5439,7 +5681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>374</v>
       </c>
@@ -5458,7 +5700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>376</v>
       </c>
@@ -5477,7 +5719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>378</v>
       </c>
@@ -5496,7 +5738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>380</v>
       </c>
@@ -5515,7 +5757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>382</v>
       </c>
@@ -5534,7 +5776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>384</v>
       </c>
@@ -5553,7 +5795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>386</v>
       </c>
@@ -5572,7 +5814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>388</v>
       </c>
@@ -5591,7 +5833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>390</v>
       </c>
@@ -5610,7 +5852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>392</v>
       </c>
@@ -5629,7 +5871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>394</v>
       </c>
@@ -5648,7 +5890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>396</v>
       </c>
@@ -5667,7 +5909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>398</v>
       </c>
@@ -5686,7 +5928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>400</v>
       </c>
@@ -5705,7 +5947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>402</v>
       </c>
@@ -5724,7 +5966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>404</v>
       </c>
@@ -5743,7 +5985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>406</v>
       </c>
@@ -5762,7 +6004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>408</v>
       </c>
@@ -5781,7 +6023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>410</v>
       </c>
@@ -5800,7 +6042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>412</v>
       </c>
@@ -5819,7 +6061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>414</v>
       </c>
@@ -5838,7 +6080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>416</v>
       </c>
@@ -5857,7 +6099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>418</v>
       </c>
@@ -5876,7 +6118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>420</v>
       </c>
@@ -5895,7 +6137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>422</v>
       </c>
@@ -5914,7 +6156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>424</v>
       </c>
@@ -5933,7 +6175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>426</v>
       </c>
@@ -5952,7 +6194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>428</v>
       </c>
@@ -5971,7 +6213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>430</v>
       </c>
@@ -5990,7 +6232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>432</v>
       </c>
@@ -6009,7 +6251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>434</v>
       </c>
@@ -6028,7 +6270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>436</v>
       </c>
@@ -6047,7 +6289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>438</v>
       </c>
@@ -6066,7 +6308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>440</v>
       </c>
@@ -6085,7 +6327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>442</v>
       </c>
@@ -6104,7 +6346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>444</v>
       </c>
@@ -6123,7 +6365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>446</v>
       </c>
@@ -6142,7 +6384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>448</v>
       </c>
@@ -6161,7 +6403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>450</v>
       </c>
@@ -6180,7 +6422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>452</v>
       </c>
@@ -6199,7 +6441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>454</v>
       </c>
@@ -6218,7 +6460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>456</v>
       </c>
@@ -6237,7 +6479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>458</v>
       </c>
@@ -6256,7 +6498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>460</v>
       </c>
@@ -6275,7 +6517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>462</v>
       </c>
@@ -6294,7 +6536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>464</v>
       </c>
@@ -6313,7 +6555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>466</v>
       </c>
@@ -6332,7 +6574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>468</v>
       </c>
@@ -6351,7 +6593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>470</v>
       </c>
@@ -6370,7 +6612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>472</v>
       </c>
@@ -6389,7 +6631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>474</v>
       </c>
@@ -6408,7 +6650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>476</v>
       </c>
@@ -6427,7 +6669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>478</v>
       </c>
@@ -6446,7 +6688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>480</v>
       </c>
@@ -6465,7 +6707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>482</v>
       </c>
@@ -6484,7 +6726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>484</v>
       </c>
@@ -6503,7 +6745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>486</v>
       </c>
@@ -6522,7 +6764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>488</v>
       </c>
@@ -6541,7 +6783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>490</v>
       </c>
@@ -6560,7 +6802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>492</v>
       </c>
@@ -6579,7 +6821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>494</v>
       </c>
@@ -6598,7 +6840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>496</v>
       </c>
@@ -6617,7 +6859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>498</v>
       </c>
@@ -6636,7 +6878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>500</v>
       </c>
@@ -6655,7 +6897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>502</v>
       </c>
@@ -6674,7 +6916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>504</v>
       </c>
@@ -6693,7 +6935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>506</v>
       </c>
@@ -6712,7 +6954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>508</v>
       </c>
@@ -6731,7 +6973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>510</v>
       </c>
@@ -6750,7 +6992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>512</v>
       </c>
@@ -6769,7 +7011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>514</v>
       </c>
@@ -6788,7 +7030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>516</v>
       </c>
@@ -6807,7 +7049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>518</v>
       </c>
@@ -6826,7 +7068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>520</v>
       </c>
@@ -6845,7 +7087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>522</v>
       </c>
@@ -6864,7 +7106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>524</v>
       </c>
@@ -6883,7 +7125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>526</v>
       </c>
@@ -6902,7 +7144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>528</v>
       </c>
@@ -6921,7 +7163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>530</v>
       </c>
@@ -6940,7 +7182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>532</v>
       </c>
@@ -6959,7 +7201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>534</v>
       </c>
@@ -6978,7 +7220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>536</v>
       </c>
@@ -6997,7 +7239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>538</v>
       </c>
@@ -7016,7 +7258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>540</v>
       </c>
@@ -7035,7 +7277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>542</v>
       </c>
@@ -7054,7 +7296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>544</v>
       </c>
@@ -7073,7 +7315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>546</v>
       </c>
@@ -7092,7 +7334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>548</v>
       </c>
@@ -7111,7 +7353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>550</v>
       </c>
@@ -7130,7 +7372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>552</v>
       </c>
@@ -7149,7 +7391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>554</v>
       </c>
@@ -7168,7 +7410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>556</v>
       </c>
@@ -7187,7 +7429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>558</v>
       </c>
@@ -7206,7 +7448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>560</v>
       </c>
@@ -7227,135 +7469,134 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Compute the Probability of a Hidden Path"/>
-    <hyperlink ref="B3" r:id="rId2" display="Compute the Probability of an Outcome Given a Hidden Path"/>
-    <hyperlink ref="B4" r:id="rId3" display="Implement the Viterbi Algorithm"/>
-    <hyperlink ref="B5" r:id="rId4" display="Compute the Probability of a String Emitted by an HMM"/>
-    <hyperlink ref="B6" r:id="rId5" display="Construct a Profile HMM"/>
-    <hyperlink ref="B7" r:id="rId6" display="Construct a Profile HMM with Pseudocounts"/>
-    <hyperlink ref="B8" r:id="rId7" display="Perform a Multiple Sequence Alignment with a Profile HMM"/>
-    <hyperlink ref="B9" r:id="rId8" display="Estimate the Parameters of an HMM"/>
-    <hyperlink ref="B10" r:id="rId9" display="Implement Viterbi Learning"/>
-    <hyperlink ref="B11" r:id="rId10" display="Solve the Soft Decoding Problem"/>
-    <hyperlink ref="B12" r:id="rId11" display="Implement Baum-Welch Learning"/>
-    <hyperlink ref="B13" r:id="rId12" display="Construct the Graph of a Spectrum"/>
-    <hyperlink ref="B14" r:id="rId13" display="Implement DecodingIdealSpectrum"/>
-    <hyperlink ref="B15" r:id="rId14" display="Convert a Peptide into a Peptide Vector"/>
-    <hyperlink ref="B16" r:id="rId15" display="Convert a Peptide Vector into a Peptide"/>
-    <hyperlink ref="B17" r:id="rId16" display="Sequence a Peptide"/>
-    <hyperlink ref="B18" r:id="rId17" display="Find a Highest-Scoring Peptide in a Proteome against a Spectrum"/>
-    <hyperlink ref="B19" r:id="rId18" display="Implement PSMSearch"/>
-    <hyperlink ref="B20" r:id="rId19" display="Compute the Size of a Spectral Dictionary"/>
-    <hyperlink ref="B21" r:id="rId20" display="Compute the Probability of a Spectral Dictionary"/>
-    <hyperlink ref="B22" r:id="rId21" display="Find a Highest-Scoring Modified Peptide against a Spectrum"/>
-    <hyperlink ref="B23" r:id="rId22" display="Compute the Number of Times a Pattern Appears in a Text"/>
-    <hyperlink ref="B24" r:id="rId23" display="Find the Most Frequent Words in a String"/>
-    <hyperlink ref="B25" r:id="rId24" display="Find the Reverse Complement of a String"/>
-    <hyperlink ref="B26" r:id="rId25" display="Find All Occurrences of a Pattern in a String"/>
-    <hyperlink ref="B27" r:id="rId26" display="Find Patterns Forming Clumps in a String"/>
-    <hyperlink ref="B28" r:id="rId27" display="Find a Position in a Genome Minimizing the Skew"/>
-    <hyperlink ref="B29" r:id="rId28" display="Compute the Hamming Distance Between Two Strings"/>
-    <hyperlink ref="B30" r:id="rId29" display="Find All Approximate Occurrences of a Pattern in a String"/>
-    <hyperlink ref="B31" r:id="rId30" display="Find the Most Frequent Words with Mismatches in a String"/>
-    <hyperlink ref="B32" r:id="rId31" display="Find Frequent Words with Mismatches and Reverse Complements"/>
-    <hyperlink ref="B33" r:id="rId32" display="Generate the Frequency Array of a String"/>
-    <hyperlink ref="B34" r:id="rId33" display="Implement PatternToNumber"/>
-    <hyperlink ref="B35" r:id="rId34" display="Implement NumberToPattern"/>
-    <hyperlink ref="B36" r:id="rId35" display="Generate the d-Neighborhood of a String"/>
-    <hyperlink ref="B37" r:id="rId36" display="Implement MotifEnumeration"/>
-    <hyperlink ref="B38" r:id="rId37" display="Find a Median String"/>
-    <hyperlink ref="B39" r:id="rId38" display="Find a Profile-most Probable k-mer in a String"/>
-    <hyperlink ref="B40" r:id="rId39" display="Implement GreedyMotifSearch"/>
-    <hyperlink ref="B41" r:id="rId40" display="Implement GreedyMotifSearch with Pseudocounts"/>
-    <hyperlink ref="B42" r:id="rId41" display="Implement RandomizedMotifSearch"/>
-    <hyperlink ref="B43" r:id="rId42" display="Implement GibbsSampler"/>
-    <hyperlink ref="B44" r:id="rId43" display="Implement DistanceBetweenPatternAndStrings"/>
-    <hyperlink ref="B45" r:id="rId44" display="Generate the k-mer Composition of a String"/>
-    <hyperlink ref="B46" r:id="rId45" display="Reconstruct a String from its Genome Path"/>
-    <hyperlink ref="B47" r:id="rId46" display="Construct the Overlap Graph of a Collection of k-mers"/>
-    <hyperlink ref="B48" r:id="rId47" display="Construct the De Bruijn Graph of a String"/>
-    <hyperlink ref="B49" r:id="rId48" display="Construct the De Bruijn Graph of a Collection of k-mers"/>
-    <hyperlink ref="B50" r:id="rId49" display="Find an Eulerian Cycle in a Graph"/>
-    <hyperlink ref="B51" r:id="rId50" display="Find an Eulerian Path in a Graph"/>
-    <hyperlink ref="B52" r:id="rId51" display="Reconstruct a String from its k-mer Composition"/>
-    <hyperlink ref="B53" r:id="rId52" display="Find a k-Universal Circular String"/>
-    <hyperlink ref="B54" r:id="rId53" display="Reconstruct a String from its Paired Composition"/>
-    <hyperlink ref="B55" r:id="rId54" display="Generate Contigs from a Collection of Reads"/>
-    <hyperlink ref="B56" r:id="rId55" display="Construct a String Spelled by a Gapped Genome Path"/>
-    <hyperlink ref="B57" r:id="rId56" display="Generate All Maximal Non-Branching Paths in a Graph"/>
-    <hyperlink ref="B58" r:id="rId57" display="Translate an RNA String into an Amino Acid String"/>
-    <hyperlink ref="B59" r:id="rId58" display="Find Substrings of a Genome Encoding a Given Amino Acid String"/>
-    <hyperlink ref="B60" r:id="rId59" display="Generate the Theoretical Spectrum of a Cyclic Peptide"/>
-    <hyperlink ref="B61" r:id="rId60" display="Compute the Number of Peptides of Given Total Mass"/>
-    <hyperlink ref="B62" r:id="rId61" display="Find a Cyclic Peptide with Theoretical Spectrum Matching an Ideal Spectrum"/>
-    <hyperlink ref="B63" r:id="rId62" display="Compute the Score of a Cyclic Peptide Against a Spectrum"/>
-    <hyperlink ref="B64" r:id="rId63" display="Implement LeaderboardCyclopeptideSequencing"/>
-    <hyperlink ref="B65" r:id="rId64" display="Generate the Convolution of a Spectrum"/>
-    <hyperlink ref="B66" r:id="rId65" display="Implement ConvolutionCyclopeptideSequencing"/>
-    <hyperlink ref="B67" r:id="rId66" display="Generate the Theoretical Spectrum of a Linear Peptide"/>
-    <hyperlink ref="B68" r:id="rId67" display="Compute the Score of a Linear Peptide"/>
-    <hyperlink ref="B69" r:id="rId68" display="Trim a Peptide Leaderboard"/>
-    <hyperlink ref="B70" r:id="rId69" display="Solve the Turnpike Problem"/>
-    <hyperlink ref="B71" r:id="rId70" display="Find the Minimum Number of Coins Needed to Make Change"/>
-    <hyperlink ref="B72" r:id="rId71" display="Find the Length of a Longest Path in a Manhattan-like Grid"/>
-    <hyperlink ref="B73" r:id="rId72" display="Find a Longest Common Subsequence of Two Strings"/>
-    <hyperlink ref="B74" r:id="rId73" display="Find the Longest Path in a DAG"/>
-    <hyperlink ref="B75" r:id="rId74" display="Find a Highest-Scoring Alignment of Two Strings"/>
-    <hyperlink ref="B76" r:id="rId75" display="Find a Highest-Scoring Local Alignment of Two Strings"/>
-    <hyperlink ref="B77" r:id="rId76" display="Compute the Edit Distance Between Two Strings"/>
-    <hyperlink ref="B78" r:id="rId77" display="Find a Highest-Scoring Fitting Alignment of Two Strings"/>
-    <hyperlink ref="B79" r:id="rId78" display="Find a Highest-Scoring Overlap Alignment of Two Strings"/>
-    <hyperlink ref="B80" r:id="rId79" display="Align Two Strings Using Affine Gap Penalties"/>
-    <hyperlink ref="B81" r:id="rId80" display="Find a Middle Edge in an Alignment Graph in Linear Space"/>
-    <hyperlink ref="B82" r:id="rId81" display="Align Two Strings Using Linear Space"/>
-    <hyperlink ref="B83" r:id="rId82" display="Find a Highest-Scoring Multiple Sequence Alignment"/>
-    <hyperlink ref="B84" r:id="rId83" display="Find a Topological Ordering of a DAG"/>
-    <hyperlink ref="B85" r:id="rId84" display="Implement GreedySorting to Sort a Permutation by Reversals"/>
-    <hyperlink ref="B86" r:id="rId85" display="Compute the Number of Breakpoints in a Permutation"/>
-    <hyperlink ref="B87" r:id="rId86" display="Compute the 2-Break Distance Between a Pair of Genomes"/>
-    <hyperlink ref="B88" r:id="rId87" display="Find a Shortest Transformation of One Genome into Another by 2-Breaks"/>
-    <hyperlink ref="B89" r:id="rId88" display="Find All Shared k-mers of a Pair of Strings"/>
-    <hyperlink ref="B90" r:id="rId89" display="Implement ChromosomeToCycle"/>
-    <hyperlink ref="B91" r:id="rId90" display="Implement CycleToChromosome"/>
-    <hyperlink ref="B92" r:id="rId91" display="Implement ColoredEdges"/>
-    <hyperlink ref="B93" r:id="rId92" display="Implement GraphToGenome"/>
-    <hyperlink ref="B94" r:id="rId93" display="Implement 2-BreakOnGenomeGraph"/>
-    <hyperlink ref="B95" r:id="rId94" display="Implement 2-BreakOnGenome"/>
-    <hyperlink ref="B96" r:id="rId95" display="Compute Distances Between Leaves"/>
-    <hyperlink ref="B97" r:id="rId96" display="Compute Limb Lengths in a Tree"/>
-    <hyperlink ref="B98" r:id="rId97" display="Implement AdditivePhylogeny"/>
-    <hyperlink ref="B99" r:id="rId98" display="Implement UPGMA"/>
-    <hyperlink ref="B100" r:id="rId99" display="Implement the Neighbor Joining Algorithm"/>
-    <hyperlink ref="B101" r:id="rId100" display="Implement SmallParsimony"/>
-    <hyperlink ref="B102" r:id="rId101" display="Adapt SmallParsimony to Unrooted Trees"/>
-    <hyperlink ref="B103" r:id="rId102" display="Implement FarthestFirstTraversal"/>
-    <hyperlink ref="B104" r:id="rId103" display="Compute the Squared Error Distortion"/>
-    <hyperlink ref="B105" r:id="rId104" display="Implement the Lloyd Algorithm for k-Means Clustering"/>
-    <hyperlink ref="B106" r:id="rId105" display="Implement the Soft k-Means Clustering Algorithm"/>
-    <hyperlink ref="B107" r:id="rId106" display="Implement Hierarchical Clustering"/>
-    <hyperlink ref="B108" r:id="rId107" display="Construct a Trie from a Collection of Patterns"/>
-    <hyperlink ref="B109" r:id="rId108" display="Implement TrieMatching"/>
-    <hyperlink ref="B110" r:id="rId109" display="Construct the Suffix Tree of a String"/>
-    <hyperlink ref="B111" r:id="rId110" display="Find the Longest Repeat in a String"/>
-    <hyperlink ref="B112" r:id="rId111" display="Find the Longest Substring Shared by Two Strings"/>
-    <hyperlink ref="B113" r:id="rId112" display="Find the Shortest Non-Shared Substring of Two Strings"/>
-    <hyperlink ref="B114" r:id="rId113" display="Construct the Suffix Array of a String"/>
-    <hyperlink ref="B115" r:id="rId114" display="Pattern Matching with the Suffix Array"/>
-    <hyperlink ref="B116" r:id="rId115" display="Construct the Burrows-Wheeler Transform of a String"/>
-    <hyperlink ref="B117" r:id="rId116" display="Reconstruct a String from its Burrows-Wheeler Transform"/>
-    <hyperlink ref="B118" r:id="rId117" display="Generate the Last-to-First Mapping of a String"/>
-    <hyperlink ref="B119" r:id="rId118" display="Implement BWMatching"/>
-    <hyperlink ref="B120" r:id="rId119" display="Implement BetterBWMatching"/>
-    <hyperlink ref="B121" r:id="rId120" display="Find All Occurrences of a Collection of Patterns in a String"/>
-    <hyperlink ref="B122" r:id="rId121" display="Find All Approximate Occurrences of a Collection of Patterns in a String"/>
-    <hyperlink ref="B123" r:id="rId122" display="Implement TreeColoring"/>
-    <hyperlink ref="B124" r:id="rId123" display="Construct the Partial Suffix Array of a String"/>
-    <hyperlink ref="B125" r:id="rId124" display="Construct a Suffix Tree from a Suffix Array"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0300-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0300-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0300-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0300-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0300-00006F000000}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0300-000070000000}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0300-000071000000}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0300-000072000000}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0300-000073000000}"/>
+    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0300-000074000000}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0300-000075000000}"/>
+    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0300-000076000000}"/>
+    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0300-000077000000}"/>
+    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0300-000078000000}"/>
+    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0300-000079000000}"/>
+    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0300-00007A000000}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0300-00007B000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
